--- a/resources/Assembly.xlsx
+++ b/resources/Assembly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\gtxl\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1496BCA-5D8D-4513-AF0F-717B0C953804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBA54D4-52D9-4FFC-975A-E07BC8B27452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69525" yWindow="-3780" windowWidth="34230" windowHeight="18135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68385" yWindow="-4170" windowWidth="34230" windowHeight="18135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Z59" sqref="Z59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5666,9 +5666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D4C858-904D-45CD-9444-9CF049B0AF8F}">
   <dimension ref="A1:H258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/resources/Assembly.xlsx
+++ b/resources/Assembly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\gtxl\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBA54D4-52D9-4FFC-975A-E07BC8B27452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689FFC87-5C0C-4655-AB17-DB0C9080D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68385" yWindow="-4170" windowWidth="34230" windowHeight="18135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5505" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="fibon" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="133">
   <si>
     <t>ld</t>
   </si>
@@ -281,46 +280,10 @@
     <t>--move n+1 to vid for output</t>
   </si>
   <si>
-    <t>-- load AC with x01</t>
-  </si>
-  <si>
-    <t>--XOR compare x01 with 0x8001</t>
-  </si>
-  <si>
-    <t>-- branch if equal</t>
-  </si>
-  <si>
     <t>--store 0x01 to BOOTCNT</t>
   </si>
   <si>
-    <t>--Load X with BOOTCNT (0x01)</t>
-  </si>
-  <si>
     <t>-- reti to set interrupt enbale</t>
-  </si>
-  <si>
-    <t>-- temporary video handler vector</t>
-  </si>
-  <si>
-    <t>-- temporary cold boot vector</t>
-  </si>
-  <si>
-    <t>--Load AC with 55</t>
-  </si>
-  <si>
-    <t>--XOR compare 55 with 0x8001</t>
-  </si>
-  <si>
-    <t>-- load BOOTCNT with 55</t>
-  </si>
-  <si>
-    <t>-- end of booting</t>
-  </si>
-  <si>
-    <t>-- test program:store value to memory, load it back, add to it, repeat</t>
-  </si>
-  <si>
-    <t>-- branch back</t>
   </si>
   <si>
     <t>--store value</t>
@@ -335,13 +298,145 @@
     <t>--initialize AC with 0</t>
   </si>
   <si>
-    <t>-- setup Y for memory addressing</t>
+    <t>[80,D],AC</t>
   </si>
   <si>
-    <t>-- reload X</t>
+    <t>[Y,D],AC</t>
   </si>
   <si>
-    <t>-- load result to VID output incrementing X for testing</t>
+    <t>[80,D],X</t>
+  </si>
+  <si>
+    <t>[80,D],Y</t>
+  </si>
+  <si>
+    <t>[80,D],VID</t>
+  </si>
+  <si>
+    <t>-- save register states</t>
+  </si>
+  <si>
+    <t>--reload timer</t>
+  </si>
+  <si>
+    <t>--check if booting finished</t>
+  </si>
+  <si>
+    <t>--check if first boot</t>
+  </si>
+  <si>
+    <t>--first boot</t>
+  </si>
+  <si>
+    <t>-- return from interrupt</t>
+  </si>
+  <si>
+    <t>--restore registers</t>
+  </si>
+  <si>
+    <t>-- reti to clear interrupt disable for normal booting</t>
+  </si>
+  <si>
+    <t>-- store Y  to 0x8001</t>
+  </si>
+  <si>
+    <t>-- store X to 0x8002</t>
+  </si>
+  <si>
+    <t>Zero Page Registers</t>
+  </si>
+  <si>
+    <t>AC storage</t>
+  </si>
+  <si>
+    <t>Y storage</t>
+  </si>
+  <si>
+    <t>X storage</t>
+  </si>
+  <si>
+    <t>BOOTCNT</t>
+  </si>
+  <si>
+    <t>-- Load BOOTCNT</t>
+  </si>
+  <si>
+    <t>--XOR compare 55 with BOOTCNT</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>VIDEO_HANDLER</t>
+  </si>
+  <si>
+    <t>-- xor compare with 1</t>
+  </si>
+  <si>
+    <t>BOOT_VECTOR</t>
+  </si>
+  <si>
+    <t>--load AC</t>
+  </si>
+  <si>
+    <t>-- load X</t>
+  </si>
+  <si>
+    <t>-- load Y</t>
+  </si>
+  <si>
+    <t>-- store 55 to  BOOTCNT</t>
+  </si>
+  <si>
+    <t>-- main test program:store value to memory, load it back, add to it, repeat</t>
+  </si>
+  <si>
+    <t>MAIN_LOOP</t>
+  </si>
+  <si>
+    <t>TEST COUNT</t>
+  </si>
+  <si>
+    <t>-- copy result to VID output incrementing X for testing</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>VID</t>
+  </si>
+  <si>
+    <t>[80,D]</t>
+  </si>
+  <si>
+    <t>[Y,D]</t>
+  </si>
+  <si>
+    <t>[Y,X]</t>
+  </si>
+  <si>
+    <t>[Y,X++]</t>
+  </si>
+  <si>
+    <t>[80,X]</t>
+  </si>
+  <si>
+    <t>--branch if equal to VIDEO_HANDLER</t>
+  </si>
+  <si>
+    <t>-- VIDEO_HANDLER</t>
+  </si>
+  <si>
+    <t>-- BOOT_VECTOR</t>
+  </si>
+  <si>
+    <t>-- MAIN_LOOP</t>
+  </si>
+  <si>
+    <t>-- branch back to MAIN_LOOP</t>
+  </si>
+  <si>
+    <t>-- branch to BOOT_VECTOR if equal</t>
   </si>
 </sst>
 </file>
@@ -660,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AD106"/>
+  <dimension ref="A2:AD107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +779,7 @@
     <col min="24" max="24" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -703,8 +798,14 @@
       <c r="I2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -712,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -723,8 +824,20 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -732,19 +845,31 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -752,19 +877,31 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -772,7 +909,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>12</v>
@@ -783,8 +920,14 @@
       <c r="I6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -792,7 +935,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F7">
         <v>16</v>
@@ -800,8 +943,14 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -809,13 +958,13 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="F8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -823,13 +972,13 @@
         <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -843,7 +992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -855,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -863,8 +1012,14 @@
         <f t="shared" ref="C12:C18" si="0">224+F4</f>
         <v>228</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -872,8 +1027,14 @@
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>50</v>
       </c>
@@ -881,8 +1042,14 @@
         <f t="shared" si="0"/>
         <v>236</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>61</v>
       </c>
@@ -890,8 +1057,14 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -899,8 +1072,14 @@
         <f t="shared" si="0"/>
         <v>244</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -908,8 +1087,14 @@
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>53</v>
       </c>
@@ -917,8 +1102,14 @@
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>63</v>
       </c>
@@ -926,326 +1117,265 @@
         <f>C10+I6</f>
         <v>227</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>26</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>22</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>23</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I22" t="s">
         <v>24</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J22" t="s">
         <v>25</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="G22">
-        <f t="shared" ref="G22:G57" si="1">_xlfn.XLOOKUP(B22,$B$3:$B$19,$C$3:$C$19)</f>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G58" si="1">_xlfn.XLOOKUP(B23,$B$3:$B$19,$C$3:$C$19)</f>
         <v>192</v>
       </c>
-      <c r="H22">
-        <f t="shared" ref="H22:H57" si="2">_xlfn.XLOOKUP(C22,$E$3:$E$11,$F$3:$F$11)</f>
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ref="I22:I57" si="3">_xlfn.XLOOKUP(D22,$H$3:$H$7,$I$3:$I$7)</f>
+      <c r="H23">
+        <f>_xlfn.XLOOKUP(C23,$E$3:$E$20,$F$3:$F$20)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I58" si="2">_xlfn.XLOOKUP(D23,$H$3:$H$7,$I$3:$I$7)</f>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:J59" si="3">G23+H23+I23</f>
+        <v>194</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23">
+        <f>A23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="str">
+        <f>DEC2HEX(J23,2)</f>
+        <v>C2</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23">
+        <f>M23+1</f>
         <v>1</v>
       </c>
-      <c r="J22">
-        <f t="shared" ref="J22:J58" si="4">G22+H22+I22</f>
-        <v>201</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="R23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" ref="S23:S60" si="4">DEC2HEX(E23,2)</f>
+        <v>00</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" ref="U23:U58" si="5">B23</f>
+        <v>st</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M22">
-        <f>A22</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" t="str">
-        <f>DEC2HEX(J22,2)</f>
-        <v>C9</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22">
-        <f>M22+1</f>
+      <c r="W23" t="str">
+        <f t="shared" ref="W23:W58" si="6">C23</f>
+        <v>[80,D]</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" ref="Y23:Y58" si="7">D23</f>
+        <v>AC</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A23+2</f>
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
         <v>1</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S22" t="str">
-        <f t="shared" ref="S22:S59" si="5">DEC2HEX(E22,2)</f>
-        <v>00</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" ref="U22:U57" si="6">B22</f>
-        <v>st</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W22" t="str">
-        <f t="shared" ref="W22:W57" si="7">C22</f>
-        <v>[80,00],AC</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y22" t="str">
-        <f t="shared" ref="Y22:Y57" si="8">D22</f>
-        <v>AC</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>A22+2</f>
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f t="shared" ref="L23:L71" si="9">L22</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M23">
-        <f t="shared" ref="M23:M59" si="10">A23</f>
-        <v>2</v>
-      </c>
-      <c r="N23" s="1" t="str">
-        <f t="shared" ref="N23:N71" si="11">N22</f>
-        <v xml:space="preserve"> =&gt;x"</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" ref="O23:O59" si="12">DEC2HEX(J23,2)</f>
-        <v>07</v>
-      </c>
-      <c r="P23" s="1" t="str">
-        <f t="shared" ref="P23:P71" si="13">P22</f>
-        <v xml:space="preserve">",  </v>
-      </c>
-      <c r="Q23">
-        <f t="shared" ref="Q23:Q59" si="14">M23+1</f>
-        <v>3</v>
-      </c>
-      <c r="R23" s="1" t="str">
-        <f t="shared" ref="R23:R71" si="15">R22</f>
-        <v>=&gt;x"</v>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
-      </c>
-      <c r="T23" s="1" t="str">
-        <f t="shared" ref="T23:T59" si="16">T22</f>
-        <v xml:space="preserve">", -- </v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="6"/>
-        <v>ld</v>
-      </c>
-      <c r="V23" s="1" t="str">
-        <f t="shared" ref="V23:V59" si="17">V22</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W23" t="str">
-        <f t="shared" si="7"/>
-        <v>[Y,X],AC</v>
-      </c>
-      <c r="X23" s="1" t="str">
-        <f t="shared" ref="X23:X59" si="18">X22</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y23" t="str">
-        <f t="shared" si="8"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" ref="A24:A71" si="19">A23+2</f>
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>129</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H24">
+        <f t="shared" ref="H24:H72" si="8">_xlfn.XLOOKUP(C24,$E$3:$E$20,$F$3:$F$20)</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
+        <v>195</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" ref="L24:L72" si="9">L23</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:M60" si="10">A24</f>
+        <v>2</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" ref="N24:N72" si="11">N23</f>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" ref="O24:O60" si="12">DEC2HEX(J24,2)</f>
+        <v>C3</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" ref="P24:P72" si="13">P23</f>
+        <v xml:space="preserve">",  </v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:Q60" si="14">M24+1</f>
+        <v>3</v>
+      </c>
+      <c r="R24" s="1" t="str">
+        <f t="shared" ref="R24:R72" si="15">R23</f>
+        <v>=&gt;x"</v>
+      </c>
+      <c r="S24" t="str">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="L24" s="1" t="str">
+        <v>01</v>
+      </c>
+      <c r="T24" s="1" t="str">
+        <f t="shared" ref="T24:T60" si="16">T23</f>
+        <v xml:space="preserve">", -- </v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="5"/>
+        <v>st</v>
+      </c>
+      <c r="V24" s="1" t="str">
+        <f t="shared" ref="V24:V60" si="17">V23</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="6"/>
+        <v>[80,D]</v>
+      </c>
+      <c r="X24" s="1" t="str">
+        <f t="shared" ref="X24:X60" si="18">X23</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="7"/>
+        <v>Y</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ref="A25:A72" si="19">A24+2</f>
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>63</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="L25" s="1" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <f t="shared" si="10"/>
         <v>4</v>
-      </c>
-      <c r="N24" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> =&gt;x"</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="P24" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">",  </v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="R24" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>=&gt;x"</v>
-      </c>
-      <c r="S24" t="str">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="T24" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">", -- </v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="6"/>
-        <v>ld</v>
-      </c>
-      <c r="V24" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W24" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],Y</v>
-      </c>
-      <c r="X24" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y24" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>213</v>
-      </c>
-      <c r="L25" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="10"/>
-        <v>6</v>
       </c>
       <c r="N25" s="1" t="str">
         <f t="shared" si="11"/>
@@ -1253,7 +1383,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="12"/>
-        <v>D5</v>
+        <v>14</v>
       </c>
       <c r="P25" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1261,76 +1391,70 @@
       </c>
       <c r="Q25">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R25" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
+        <f t="shared" si="4"/>
+        <v>3F</v>
       </c>
       <c r="T25" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="6"/>
-        <v>st</v>
+        <f t="shared" si="5"/>
+        <v>ld</v>
       </c>
       <c r="V25" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="7"/>
-        <v>[Y,00],Y</v>
+        <f t="shared" si="6"/>
+        <v>Y</v>
       </c>
       <c r="X25" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="8"/>
-        <v>AC</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1338,7 +1462,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N26" s="1" t="str">
         <f t="shared" si="11"/>
@@ -1346,7 +1470,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>0D</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1354,22 +1478,22 @@
       </c>
       <c r="Q26">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R26" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="5"/>
-        <v>3F</v>
+        <f t="shared" si="4"/>
+        <v>00</v>
       </c>
       <c r="T26" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ld</v>
       </c>
       <c r="V26" s="1" t="str">
@@ -1377,47 +1501,53 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],Y</v>
+        <f t="shared" si="6"/>
+        <v>[Y,X],AC</v>
       </c>
       <c r="X26" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>MEM</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1425,7 +1555,7 @@
       </c>
       <c r="M27">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N27" s="1" t="str">
         <f t="shared" si="11"/>
@@ -1433,7 +1563,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" si="12"/>
-        <v>06</v>
+        <v>C2</v>
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1441,76 +1571,76 @@
       </c>
       <c r="Q27">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R27" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
+        <f t="shared" si="4"/>
+        <v>02</v>
       </c>
       <c r="T27" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="6"/>
-        <v>ld</v>
+        <f t="shared" si="5"/>
+        <v>st</v>
       </c>
       <c r="V27" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="7"/>
-        <v>[Y,X],AC</v>
+        <f t="shared" si="6"/>
+        <v>[80,D]</v>
       </c>
       <c r="X27" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="8"/>
-        <v>MEM</v>
+        <f t="shared" si="7"/>
+        <v>AC</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1518,7 +1648,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N28" s="1" t="str">
         <f t="shared" si="11"/>
@@ -1526,7 +1656,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" si="12"/>
-        <v>0C</v>
+        <v>14</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1534,22 +1664,22 @@
       </c>
       <c r="Q28">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R28" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="5"/>
-        <v>05</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="T28" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ld</v>
       </c>
       <c r="V28" s="1" t="str">
@@ -1557,47 +1687,56 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],X</v>
+        <f t="shared" si="6"/>
+        <v>Y</v>
       </c>
       <c r="X28" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>56</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="H29">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="4"/>
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1605,7 +1744,7 @@
       </c>
       <c r="M29">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N29" s="1" t="str">
         <f t="shared" si="11"/>
@@ -1613,7 +1752,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" si="12"/>
-        <v>C1</v>
+        <v>CC</v>
       </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1621,22 +1760,22 @@
       </c>
       <c r="Q29">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R29" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
+        <f t="shared" si="4"/>
+        <v>38</v>
       </c>
       <c r="T29" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>st</v>
       </c>
       <c r="V29" s="1" t="str">
@@ -1644,53 +1783,53 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+        <f t="shared" si="6"/>
+        <v>[Y,X]</v>
       </c>
       <c r="X29" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="8"/>
-        <v>AC</v>
+        <f t="shared" si="7"/>
+        <v>D</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1698,7 +1837,7 @@
       </c>
       <c r="M30">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N30" s="1" t="str">
         <f t="shared" si="11"/>
@@ -1706,7 +1845,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1714,22 +1853,22 @@
       </c>
       <c r="Q30">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R30" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="5"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>03</v>
       </c>
       <c r="T30" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ld</v>
       </c>
       <c r="V30" s="1" t="str">
@@ -1737,53 +1876,56 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],Y</v>
+        <f t="shared" si="6"/>
+        <v>[80,D]</v>
       </c>
       <c r="X30" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
+        <f t="shared" si="7"/>
+        <v>MEM</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="19"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="H31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="4"/>
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1791,7 +1933,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N31" s="1" t="str">
         <f t="shared" si="11"/>
@@ -1799,7 +1941,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" si="12"/>
-        <v>C4</v>
+        <v>60</v>
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1807,76 +1949,73 @@
       </c>
       <c r="Q31">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R31" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>37</v>
       </c>
       <c r="T31" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="6"/>
-        <v>st</v>
+        <f t="shared" si="5"/>
+        <v>xor</v>
       </c>
       <c r="V31" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="7"/>
-        <v>[Y,X],AC</v>
+        <f t="shared" si="6"/>
+        <v>AC</v>
       </c>
       <c r="X31" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>D</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>A31+2</f>
-        <v>20</v>
+        <f t="shared" si="19"/>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="H32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1884,7 +2023,7 @@
       </c>
       <c r="M32">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N32" s="1" t="str">
         <f t="shared" si="11"/>
@@ -1892,7 +2031,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" si="12"/>
-        <v>0C</v>
+        <v>F0</v>
       </c>
       <c r="P32" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1900,76 +2039,76 @@
       </c>
       <c r="Q32">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R32" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="T32" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="6"/>
-        <v>ld</v>
+        <f t="shared" si="5"/>
+        <v>beq</v>
       </c>
       <c r="V32" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W32" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],X</v>
+      <c r="W32">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="X32" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>D</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="19"/>
-        <v>22</v>
+        <f>A32+2</f>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1977,7 +2116,7 @@
       </c>
       <c r="M33">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N33" s="1" t="str">
         <f t="shared" si="11"/>
@@ -1985,7 +2124,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="P33" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1993,22 +2132,22 @@
       </c>
       <c r="Q33">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R33" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f t="shared" si="4"/>
+        <v>03</v>
       </c>
       <c r="T33" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ld</v>
       </c>
       <c r="V33" s="1" t="str">
@@ -2016,50 +2155,53 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+        <f t="shared" si="6"/>
+        <v>[80,D]</v>
       </c>
       <c r="X33" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
+        <f t="shared" si="7"/>
+        <v>MEM</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="19"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="H34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2067,7 +2209,7 @@
       </c>
       <c r="M34">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N34" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2075,7 +2217,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" si="12"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P34" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2083,22 +2225,22 @@
       </c>
       <c r="Q34">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R34" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
+        <f t="shared" si="4"/>
+        <v>01</v>
       </c>
       <c r="T34" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>xor</v>
       </c>
       <c r="V34" s="1" t="str">
@@ -2106,25 +2248,28 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+        <f t="shared" si="6"/>
+        <v>AC</v>
       </c>
       <c r="X34" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="8"/>
-        <v>MEM</v>
+        <f t="shared" si="7"/>
+        <v>D</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="19"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>61</v>
@@ -2133,22 +2278,22 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="H35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="L35" s="1" t="str">
@@ -2157,7 +2302,7 @@
       </c>
       <c r="M35">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N35" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2173,22 +2318,22 @@
       </c>
       <c r="Q35">
         <f t="shared" si="14"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R35" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="5"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>2E</v>
       </c>
       <c r="T35" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>beq</v>
       </c>
       <c r="V35" s="1" t="str">
@@ -2196,7 +2341,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X35" s="1" t="str">
@@ -2204,23 +2349,23 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>D</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="19"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -2233,15 +2378,15 @@
         <v>0</v>
       </c>
       <c r="H36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L36" s="1" t="str">
@@ -2250,7 +2395,7 @@
       </c>
       <c r="M36">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N36" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2266,14 +2411,14 @@
       </c>
       <c r="Q36">
         <f t="shared" si="14"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R36" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
       <c r="T36" s="1" t="str">
@@ -2281,7 +2426,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ld</v>
       </c>
       <c r="V36" s="1" t="str">
@@ -2289,50 +2434,53 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+        <f t="shared" si="6"/>
+        <v>AC</v>
       </c>
       <c r="X36" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>D</v>
       </c>
-      <c r="Z36" s="1" t="s">
-        <v>80</v>
+      <c r="AD36" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="H37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2340,7 +2488,7 @@
       </c>
       <c r="M37">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N37" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2348,7 +2496,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" si="12"/>
-        <v>62</v>
+        <v>C2</v>
       </c>
       <c r="P37" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2356,73 +2504,67 @@
       </c>
       <c r="Q37">
         <f t="shared" si="14"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R37" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
+        <f t="shared" si="4"/>
+        <v>03</v>
       </c>
       <c r="T37" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="6"/>
-        <v>xor</v>
+        <f t="shared" si="5"/>
+        <v>st</v>
       </c>
       <c r="V37" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+        <f t="shared" si="6"/>
+        <v>[80,D]</v>
       </c>
       <c r="X37" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y37" t="str">
-        <f t="shared" si="8"/>
-        <v>MEM</v>
+        <f t="shared" si="7"/>
+        <v>AC</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="19"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="4"/>
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2430,7 +2572,7 @@
       </c>
       <c r="M38">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N38" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2438,7 +2580,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" si="12"/>
-        <v>F0</v>
+        <v>E3</v>
       </c>
       <c r="P38" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2446,75 +2588,78 @@
       </c>
       <c r="Q38">
         <f t="shared" si="14"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R38" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="5"/>
-        <v>3A</v>
+        <f t="shared" si="4"/>
+        <v>00</v>
       </c>
       <c r="T38" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="6"/>
-        <v>beq</v>
+        <f t="shared" si="5"/>
+        <v>reti</v>
       </c>
       <c r="V38" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X38" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y38" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
+      <c r="Y38">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="19"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f>_xlfn.XLOOKUP(B39,$B$3:$B$19,$C$3:$C$19)</f>
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I39">
+        <f>_xlfn.XLOOKUP(D39,$H$3:$H$7,$I$3:$I$7)</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L39" s="1" t="str">
@@ -2523,7 +2668,7 @@
       </c>
       <c r="M39">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N39" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2539,22 +2684,22 @@
       </c>
       <c r="Q39">
         <f t="shared" si="14"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R39" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
+        <f>DEC2HEX(E39,2)</f>
+        <v>00</v>
       </c>
       <c r="T39" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="6"/>
+        <f>B39</f>
         <v>ld</v>
       </c>
       <c r="V39" s="1" t="str">
@@ -2562,47 +2707,56 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+        <f>C39</f>
+        <v>AC</v>
       </c>
       <c r="X39" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y39" t="str">
-        <f t="shared" si="8"/>
+        <f>D39</f>
         <v>D</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="19"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
-        <v>192</v>
+        <f>_xlfn.XLOOKUP(B40,$B$3:$B$19,$C$3:$C$19)</f>
+        <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
       <c r="I40">
+        <f>_xlfn.XLOOKUP(D40,$H$3:$H$7,$I$3:$I$7)</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="4"/>
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2610,7 +2764,7 @@
       </c>
       <c r="M40">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N40" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2618,7 +2772,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" si="12"/>
-        <v>C1</v>
+        <v>10</v>
       </c>
       <c r="P40" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2626,14 +2780,14 @@
       </c>
       <c r="Q40">
         <f t="shared" si="14"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R40" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(E40,2)</f>
         <v>00</v>
       </c>
       <c r="T40" s="1" t="str">
@@ -2641,52 +2795,64 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="6"/>
-        <v>st</v>
+        <f>B40</f>
+        <v>ld</v>
       </c>
       <c r="V40" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+        <f>C40</f>
+        <v>X</v>
       </c>
       <c r="X40" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y40" t="str">
-        <f t="shared" si="8"/>
-        <v>AC</v>
+        <f>D40</f>
+        <v>D</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="19"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>227</v>
+        <f>_xlfn.XLOOKUP(B41,$B$3:$B$19,$C$3:$C$19)</f>
+        <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="I41">
+        <f>_xlfn.XLOOKUP(D41,$H$3:$H$7,$I$3:$I$7)</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="4"/>
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2694,7 +2860,7 @@
       </c>
       <c r="M41">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N41" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2702,7 +2868,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" si="12"/>
-        <v>E3</v>
+        <v>14</v>
       </c>
       <c r="P41" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2710,14 +2876,14 @@
       </c>
       <c r="Q41">
         <f t="shared" si="14"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R41" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="5"/>
+        <f>DEC2HEX(E41,2)</f>
         <v>00</v>
       </c>
       <c r="T41" s="1" t="str">
@@ -2725,42 +2891,39 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="6"/>
-        <v>reti</v>
+        <f>B41</f>
+        <v>ld</v>
       </c>
       <c r="V41" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W41">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="W41" t="str">
+        <f>C41</f>
+        <v>Y</v>
       </c>
       <c r="X41" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>85</v>
+      <c r="Y41" t="str">
+        <f>D41</f>
+        <v>D</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2770,16 +2933,16 @@
         <v>0</v>
       </c>
       <c r="H42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2787,7 +2950,7 @@
       </c>
       <c r="M42">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N42" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2795,7 +2958,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="P42" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2803,14 +2966,14 @@
       </c>
       <c r="Q42">
         <f t="shared" si="14"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R42" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="T42" s="1" t="str">
@@ -2818,7 +2981,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ld</v>
       </c>
       <c r="V42" s="1" t="str">
@@ -2826,56 +2989,53 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+        <f t="shared" si="6"/>
+        <v>[80,D],AC</v>
       </c>
       <c r="X42" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y42" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
+        <f t="shared" si="7"/>
+        <v>MEM</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD42" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="19"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f>_xlfn.XLOOKUP(B43,$B$3:$B$19,$C$3:$C$19)</f>
         <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
       <c r="I43">
+        <f>_xlfn.XLOOKUP(D43,$H$3:$H$7,$I$3:$I$7)</f>
+        <v>1</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2883,7 +3043,7 @@
       </c>
       <c r="M43">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N43" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2891,7 +3051,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" si="12"/>
-        <v>0C</v>
+        <v>11</v>
       </c>
       <c r="P43" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2899,22 +3059,22 @@
       </c>
       <c r="Q43">
         <f t="shared" si="14"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R43" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
+        <f>DEC2HEX(E43,2)</f>
+        <v>01</v>
       </c>
       <c r="T43" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="6"/>
+        <f>B43</f>
         <v>ld</v>
       </c>
       <c r="V43" s="1" t="str">
@@ -2922,50 +3082,53 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],X</v>
+        <f>C43</f>
+        <v>[80,D],X</v>
       </c>
       <c r="X43" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y43" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
+        <f>D43</f>
+        <v>MEM</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="19"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f>_xlfn.XLOOKUP(B44,$B$3:$B$19,$C$3:$C$19)</f>
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="I44">
+        <f>_xlfn.XLOOKUP(D44,$H$3:$H$7,$I$3:$I$7)</f>
+        <v>1</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2973,7 +3136,7 @@
       </c>
       <c r="M44">
         <f t="shared" si="10"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N44" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2981,7 +3144,7 @@
       </c>
       <c r="O44" t="str">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P44" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2989,22 +3152,22 @@
       </c>
       <c r="Q44">
         <f t="shared" si="14"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R44" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
+        <f>DEC2HEX(E44,2)</f>
+        <v>02</v>
       </c>
       <c r="T44" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="6"/>
+        <f>B44</f>
         <v>ld</v>
       </c>
       <c r="V44" s="1" t="str">
@@ -3012,53 +3175,44 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],Y</v>
+        <f>C44</f>
+        <v>[80,D],Y</v>
       </c>
       <c r="X44" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y44" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
+        <f>D44</f>
+        <v>MEM</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="19"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>_xlfn.XLOOKUP(B45,$B$3:$B$19,$C$3:$C$19)</f>
+        <v>227</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="I45">
+        <f>_xlfn.XLOOKUP(D45,$H$3:$H$7,$I$3:$I$7)</f>
+        <v>0</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3066,7 +3220,7 @@
       </c>
       <c r="M45">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N45" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3074,7 +3228,7 @@
       </c>
       <c r="O45" t="str">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>E3</v>
       </c>
       <c r="P45" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3082,73 +3236,76 @@
       </c>
       <c r="Q45">
         <f t="shared" si="14"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R45" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="5"/>
-        <v>81</v>
+        <f>DEC2HEX(E45,2)</f>
+        <v>00</v>
       </c>
       <c r="T45" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="6"/>
-        <v>ld</v>
+        <f>B45</f>
+        <v>reti</v>
       </c>
       <c r="V45" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W45" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],Y</v>
+      <c r="W45">
+        <f>C45</f>
+        <v>0</v>
       </c>
       <c r="X45" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y45" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
+      <c r="Y45">
+        <f>D45</f>
+        <v>0</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="19"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>55</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3156,7 +3313,7 @@
       </c>
       <c r="M46">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N46" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3164,7 +3321,7 @@
       </c>
       <c r="O46" t="str">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>00</v>
       </c>
       <c r="P46" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3172,22 +3329,22 @@
       </c>
       <c r="Q46">
         <f t="shared" si="14"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R46" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
+        <f t="shared" si="4"/>
+        <v>37</v>
       </c>
       <c r="T46" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ld</v>
       </c>
       <c r="V46" s="1" t="str">
@@ -3195,50 +3352,54 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="7"/>
-        <v>[Y,00],Y</v>
+        <f t="shared" si="6"/>
+        <v>AC</v>
       </c>
       <c r="X46" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y46" t="str">
-        <f t="shared" si="8"/>
-        <v>MEM</v>
+        <f t="shared" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="Z46" s="1"/>
+      <c r="AD46" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="19"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3246,7 +3407,7 @@
       </c>
       <c r="M47">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N47" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3254,7 +3415,7 @@
       </c>
       <c r="O47" t="str">
         <f t="shared" si="12"/>
-        <v>0C</v>
+        <v>C2</v>
       </c>
       <c r="P47" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3262,73 +3423,76 @@
       </c>
       <c r="Q47">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R47" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="5"/>
-        <v>05</v>
+        <f t="shared" si="4"/>
+        <v>03</v>
       </c>
       <c r="T47" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="6"/>
-        <v>ld</v>
+        <f t="shared" si="5"/>
+        <v>st</v>
       </c>
       <c r="V47" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],X</v>
+        <f t="shared" si="6"/>
+        <v>[80,D]</v>
       </c>
       <c r="X47" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y47" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
+        <f t="shared" si="7"/>
+        <v>AC</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="19"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3336,7 +3500,7 @@
       </c>
       <c r="M48">
         <f t="shared" si="10"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N48" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3344,7 +3508,7 @@
       </c>
       <c r="O48" t="str">
         <f t="shared" si="12"/>
-        <v>0E</v>
+        <v>00</v>
       </c>
       <c r="P48" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3352,14 +3516,14 @@
       </c>
       <c r="Q48">
         <f t="shared" si="14"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R48" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="T48" s="1" t="str">
@@ -3367,7 +3531,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>ld</v>
       </c>
       <c r="V48" s="1" t="str">
@@ -3375,47 +3539,56 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W48" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],X</v>
+        <f t="shared" si="6"/>
+        <v>AC</v>
       </c>
       <c r="X48" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y48" t="str">
-        <f t="shared" si="8"/>
-        <v>MEM</v>
+        <f t="shared" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="19"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3423,7 +3596,7 @@
       </c>
       <c r="M49">
         <f t="shared" si="10"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N49" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3431,7 +3604,7 @@
       </c>
       <c r="O49" t="str">
         <f t="shared" si="12"/>
-        <v>0A</v>
+        <v>C2</v>
       </c>
       <c r="P49" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3439,67 +3612,79 @@
       </c>
       <c r="Q49">
         <f t="shared" si="14"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R49" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S49" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
+        <f t="shared" si="4"/>
+        <v>04</v>
       </c>
       <c r="T49" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="6"/>
-        <v>ld</v>
+        <f t="shared" si="5"/>
+        <v>st</v>
       </c>
       <c r="V49" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W49" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,00],AC</v>
+        <f t="shared" si="6"/>
+        <v>[80,D]</v>
       </c>
       <c r="X49" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y49" t="str">
-        <f t="shared" si="8"/>
-        <v>MEM</v>
+        <f t="shared" si="7"/>
+        <v>AC</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
+      </c>
+      <c r="AD49" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="19"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="H50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="4"/>
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3507,7 +3692,7 @@
       </c>
       <c r="M50">
         <f t="shared" si="10"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N50" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3515,7 +3700,7 @@
       </c>
       <c r="O50" t="str">
         <f t="shared" si="12"/>
-        <v>E3</v>
+        <v>01</v>
       </c>
       <c r="P50" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3523,74 +3708,76 @@
       </c>
       <c r="Q50">
         <f t="shared" si="14"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R50" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S50" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
+        <f t="shared" si="4"/>
+        <v>04</v>
       </c>
       <c r="T50" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U50" t="str">
-        <f t="shared" si="6"/>
-        <v>reti</v>
+        <f t="shared" si="5"/>
+        <v>ld</v>
       </c>
       <c r="V50" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W50">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="W50" t="str">
+        <f t="shared" si="6"/>
+        <v>[80,D]</v>
       </c>
       <c r="X50" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="1"/>
+      <c r="Y50" t="str">
+        <f t="shared" si="7"/>
+        <v>MEM</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="19"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3598,7 +3785,7 @@
       </c>
       <c r="M51">
         <f t="shared" si="10"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N51" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3606,7 +3793,7 @@
       </c>
       <c r="O51" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
+        <v>80</v>
       </c>
       <c r="P51" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3614,76 +3801,73 @@
       </c>
       <c r="Q51">
         <f t="shared" si="14"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R51" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f t="shared" si="4"/>
+        <v>01</v>
       </c>
       <c r="T51" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="6"/>
-        <v>ld</v>
+        <f t="shared" si="5"/>
+        <v>add</v>
       </c>
       <c r="V51" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+        <f t="shared" si="6"/>
+        <v>AC</v>
       </c>
       <c r="X51" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>D</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD51" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="19"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="H52">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="4"/>
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="L52" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3691,7 +3875,7 @@
       </c>
       <c r="M52">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N52" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3699,7 +3883,7 @@
       </c>
       <c r="O52" t="str">
         <f t="shared" si="12"/>
-        <v>C1</v>
+        <v>1A</v>
       </c>
       <c r="P52" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3707,14 +3891,14 @@
       </c>
       <c r="Q52">
         <f t="shared" si="14"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R52" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="T52" s="1" t="str">
@@ -3722,61 +3906,58 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="6"/>
-        <v>st</v>
+        <f t="shared" si="5"/>
+        <v>ld</v>
       </c>
       <c r="V52" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+        <f t="shared" si="6"/>
+        <v>VID</v>
       </c>
       <c r="X52" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>AC</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="19"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="L53" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3784,7 +3965,7 @@
       </c>
       <c r="M53">
         <f t="shared" si="10"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N53" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3792,7 +3973,7 @@
       </c>
       <c r="O53" t="str">
         <f t="shared" si="12"/>
-        <v>0C</v>
+        <v>FC</v>
       </c>
       <c r="P53" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3800,76 +3981,64 @@
       </c>
       <c r="Q53">
         <f t="shared" si="14"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R53" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>34</v>
       </c>
       <c r="T53" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="6"/>
-        <v>ld</v>
+        <f t="shared" si="5"/>
+        <v>bra</v>
       </c>
       <c r="V53" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W53" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],X</v>
+      <c r="W53">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="X53" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>D</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="19"/>
-        <v>64</v>
-      </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="G54">
+        <v>62</v>
+      </c>
+      <c r="G54" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="H54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54">
+      <c r="J54" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="L54" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3877,15 +4046,15 @@
       </c>
       <c r="M54">
         <f t="shared" si="10"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N54" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
-      <c r="O54" t="str">
+      <c r="O54" t="e">
         <f t="shared" si="12"/>
-        <v>00</v>
+        <v>#N/A</v>
       </c>
       <c r="P54" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3893,73 +4062,61 @@
       </c>
       <c r="Q54">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R54" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="T54" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
-      <c r="U54" t="str">
-        <f t="shared" si="6"/>
-        <v>ld</v>
+      <c r="U54">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="V54" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W54" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+      <c r="W54">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="X54" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y54" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>97</v>
+      <c r="Y54">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="19"/>
-        <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55">
+        <v>64</v>
+      </c>
+      <c r="G55" t="e">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>#N/A</v>
       </c>
       <c r="H55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="J55" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="4"/>
-        <v>193</v>
+        <v>#N/A</v>
       </c>
       <c r="L55" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3967,15 +4124,15 @@
       </c>
       <c r="M55">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N55" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
-      <c r="O55" t="str">
+      <c r="O55" t="e">
         <f t="shared" si="12"/>
-        <v>C1</v>
+        <v>#N/A</v>
       </c>
       <c r="P55" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3983,73 +4140,61 @@
       </c>
       <c r="Q55">
         <f t="shared" si="14"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R55" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="T55" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
-      <c r="U55" t="str">
-        <f t="shared" si="6"/>
-        <v>st</v>
+      <c r="U55">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="V55" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W55" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+      <c r="W55">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="X55" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y55" t="str">
-        <f t="shared" si="8"/>
-        <v>AC</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>94</v>
+      <c r="Y55">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="19"/>
-        <v>68</v>
-      </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56">
+        <v>66</v>
+      </c>
+      <c r="G56" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="H56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56">
+      <c r="J56" t="e">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="L56" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4057,15 +4202,15 @@
       </c>
       <c r="M56">
         <f t="shared" si="10"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N56" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
-      <c r="O56" t="str">
+      <c r="O56" t="e">
         <f t="shared" si="12"/>
-        <v>02</v>
+        <v>#N/A</v>
       </c>
       <c r="P56" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4073,76 +4218,62 @@
       </c>
       <c r="Q56">
         <f t="shared" si="14"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R56" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="T56" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
-      <c r="U56" t="str">
-        <f t="shared" si="6"/>
-        <v>ld</v>
+      <c r="U56">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="V56" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W56" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+      <c r="W56">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="X56" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y56" t="str">
-        <f t="shared" si="8"/>
-        <v>MEM</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="Y56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="19"/>
-        <v>70</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="G57">
+        <v>68</v>
+      </c>
+      <c r="G57" t="e">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>#N/A</v>
       </c>
       <c r="H57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57">
+      <c r="J57" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="4"/>
-        <v>128</v>
+        <v>#N/A</v>
       </c>
       <c r="L57" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4150,15 +4281,15 @@
       </c>
       <c r="M57">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N57" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
-      <c r="O57" t="str">
+      <c r="O57" t="e">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>#N/A</v>
       </c>
       <c r="P57" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4166,76 +4297,61 @@
       </c>
       <c r="Q57">
         <f t="shared" si="14"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R57" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S57" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
+        <f t="shared" si="4"/>
+        <v>00</v>
       </c>
       <c r="T57" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
-      <c r="U57" t="str">
-        <f t="shared" si="6"/>
-        <v>add</v>
+      <c r="U57">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="V57" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W57" t="str">
-        <f t="shared" si="7"/>
-        <v>[80,X],AC</v>
+      <c r="W57">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="X57" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y57" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>96</v>
+      <c r="Y57">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="19"/>
-        <v>72</v>
-      </c>
-      <c r="B58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58">
-        <v>128</v>
-      </c>
-      <c r="G58">
-        <f>_xlfn.XLOOKUP(B58,$B$3:$B$19,$C$3:$C$19)</f>
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="G58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="H58">
-        <f>_xlfn.XLOOKUP(C58,$E$3:$E$11,$F$3:$F$11)</f>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="I58">
-        <f>_xlfn.XLOOKUP(D58,$H$3:$H$7,$I$3:$I$7)</f>
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="L58" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4243,15 +4359,15 @@
       </c>
       <c r="M58">
         <f t="shared" si="10"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N58" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
-      <c r="O58" t="str">
+      <c r="O58" t="e">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>#N/A</v>
       </c>
       <c r="P58" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4259,73 +4375,61 @@
       </c>
       <c r="Q58">
         <f t="shared" si="14"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R58" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S58" t="str">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>00</v>
       </c>
       <c r="T58" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
-      <c r="U58" t="str">
-        <f>B58</f>
-        <v>ld</v>
+      <c r="U58">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="V58" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W58" t="str">
-        <f>C58</f>
-        <v>[80,X],Y</v>
+      <c r="W58">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="X58" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y58" t="str">
-        <f>D58</f>
-        <v>D</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>98</v>
+      <c r="Y58">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="19"/>
-        <v>74</v>
-      </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59">
+        <v>72</v>
+      </c>
+      <c r="G59" t="e">
         <f>_xlfn.XLOOKUP(B59,$B$3:$B$19,$C$3:$C$19)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="H59">
-        <f>_xlfn.XLOOKUP(C59,$E$3:$E$11,$F$3:$F$11)</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="I59">
         <f>_xlfn.XLOOKUP(D59,$H$3:$H$7,$I$3:$I$7)</f>
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <f t="shared" ref="J59:J64" si="20">G59+H59+I59</f>
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="L59" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4333,15 +4437,15 @@
       </c>
       <c r="M59">
         <f t="shared" si="10"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N59" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
-      <c r="O59" t="str">
+      <c r="O59" t="e">
         <f t="shared" si="12"/>
-        <v>1D</v>
+        <v>#N/A</v>
       </c>
       <c r="P59" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4349,209 +4453,183 @@
       </c>
       <c r="Q59">
         <f t="shared" si="14"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R59" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="T59" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
-      <c r="U59" t="str">
+      <c r="U59">
         <f>B59</f>
-        <v>ld</v>
+        <v>0</v>
       </c>
       <c r="V59" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W59" t="str">
+      <c r="W59">
         <f>C59</f>
-        <v>[Y,X++],VID</v>
+        <v>0</v>
       </c>
       <c r="X59" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y59" t="str">
+      <c r="Y59">
         <f>D59</f>
-        <v>AC</v>
-      </c>
-      <c r="Z59" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="19"/>
-        <v>76</v>
-      </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60">
-        <v>50</v>
-      </c>
-      <c r="G60">
+        <v>74</v>
+      </c>
+      <c r="G60" t="e">
         <f>_xlfn.XLOOKUP(B60,$B$3:$B$19,$C$3:$C$19)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="H60">
-        <f>_xlfn.XLOOKUP(C60,$E$3:$E$11,$F$3:$F$11)</f>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="I60">
         <f>_xlfn.XLOOKUP(D60,$H$3:$H$7,$I$3:$I$7)</f>
         <v>0</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="20"/>
-        <v>12</v>
+      <c r="J60" t="e">
+        <f t="shared" ref="J60:J65" si="20">G60+H60+I60</f>
+        <v>#N/A</v>
       </c>
       <c r="L60" s="1" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M60">
-        <f t="shared" ref="M60:M64" si="21">A60</f>
-        <v>76</v>
+        <f t="shared" si="10"/>
+        <v>74</v>
       </c>
       <c r="N60" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
-      <c r="O60" t="str">
-        <f t="shared" ref="O60:O64" si="22">DEC2HEX(J60,2)</f>
-        <v>0C</v>
+      <c r="O60" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
       </c>
       <c r="P60" s="1" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q60">
-        <f t="shared" ref="Q60:Q64" si="23">M60+1</f>
-        <v>77</v>
+        <f t="shared" si="14"/>
+        <v>75</v>
       </c>
       <c r="R60" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S60" t="str">
-        <f t="shared" ref="S60:S64" si="24">DEC2HEX(E60,2)</f>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>00</v>
       </c>
       <c r="T60" s="1" t="str">
-        <f t="shared" ref="T60:T71" si="25">T59</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
-      <c r="U60" t="str">
+      <c r="U60">
         <f>B60</f>
-        <v>ld</v>
+        <v>0</v>
       </c>
       <c r="V60" s="1" t="str">
-        <f t="shared" ref="V60:V71" si="26">V59</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W60" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W60">
         <f>C60</f>
-        <v>[80,X],X</v>
+        <v>0</v>
       </c>
       <c r="X60" s="1" t="str">
-        <f t="shared" ref="X60:X71" si="27">X59</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y60" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y60">
         <f>D60</f>
-        <v>D</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="19"/>
-        <v>78</v>
-      </c>
-      <c r="B61" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61">
-        <v>66</v>
-      </c>
-      <c r="G61">
+        <v>76</v>
+      </c>
+      <c r="G61" t="e">
         <f>_xlfn.XLOOKUP(B61,$B$3:$B$19,$C$3:$C$19)</f>
-        <v>252</v>
+        <v>#N/A</v>
       </c>
       <c r="H61">
-        <f>_xlfn.XLOOKUP(C61,$E$3:$E$11,$F$3:$F$11)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I61">
         <f>_xlfn.XLOOKUP(D61,$H$3:$H$7,$I$3:$I$7)</f>
         <v>0</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="e">
         <f t="shared" si="20"/>
-        <v>252</v>
+        <v>#N/A</v>
       </c>
       <c r="L61" s="1" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M61">
-        <f t="shared" si="21"/>
-        <v>78</v>
+        <f t="shared" ref="M61:M65" si="21">A61</f>
+        <v>76</v>
       </c>
       <c r="N61" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
-      <c r="O61" t="str">
-        <f t="shared" si="22"/>
-        <v>FC</v>
+      <c r="O61" t="e">
+        <f t="shared" ref="O61:O65" si="22">DEC2HEX(J61,2)</f>
+        <v>#N/A</v>
       </c>
       <c r="P61" s="1" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q61">
-        <f t="shared" si="23"/>
-        <v>79</v>
+        <f t="shared" ref="Q61:Q65" si="23">M61+1</f>
+        <v>77</v>
       </c>
       <c r="R61" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S61" t="str">
-        <f t="shared" si="24"/>
-        <v>42</v>
+        <f t="shared" ref="S61:S65" si="24">DEC2HEX(E61,2)</f>
+        <v>00</v>
       </c>
       <c r="T61" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="T61:T72" si="25">T60</f>
         <v xml:space="preserve">", -- </v>
       </c>
-      <c r="U61" t="str">
+      <c r="U61">
         <f>B61</f>
-        <v>bra</v>
+        <v>0</v>
       </c>
       <c r="V61" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="V61:V72" si="26">V60</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W61">
@@ -4559,32 +4637,30 @@
         <v>0</v>
       </c>
       <c r="X61" s="1" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y61" t="str">
+        <f t="shared" ref="X61:X72" si="27">X60</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y61">
         <f>D61</f>
-        <v>D</v>
-      </c>
-      <c r="Z61" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="19"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G62" t="e">
-        <f t="shared" ref="G62:G64" si="28">_xlfn.XLOOKUP(B62,$B$3:$B$19,$C$3:$C$19)</f>
+        <f>_xlfn.XLOOKUP(B62,$B$3:$B$19,$C$3:$C$19)</f>
         <v>#N/A</v>
       </c>
       <c r="H62">
-        <f t="shared" ref="H62:H64" si="29">_xlfn.XLOOKUP(C62,$E$3:$E$11,$F$3:$F$11)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f t="shared" ref="I62:I64" si="30">_xlfn.XLOOKUP(D62,$H$3:$H$7,$I$3:$I$7)</f>
+        <f>_xlfn.XLOOKUP(D62,$H$3:$H$7,$I$3:$I$7)</f>
         <v>0</v>
       </c>
       <c r="J62" t="e">
@@ -4597,7 +4673,7 @@
       </c>
       <c r="M62">
         <f t="shared" si="21"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N62" s="1" t="str">
         <f t="shared" si="11"/>
@@ -4613,7 +4689,7 @@
       </c>
       <c r="Q62">
         <f t="shared" si="23"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R62" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4628,7 +4704,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U62">
-        <f t="shared" ref="U62:U64" si="31">B62</f>
+        <f>B62</f>
         <v>0</v>
       </c>
       <c r="V62" s="1" t="str">
@@ -4636,7 +4712,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W62">
-        <f t="shared" ref="W62:W64" si="32">C62</f>
+        <f>C62</f>
         <v>0</v>
       </c>
       <c r="X62" s="1" t="str">
@@ -4644,7 +4720,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y62">
-        <f t="shared" ref="Y62:Y64" si="33">D62</f>
+        <f>D62</f>
         <v>0</v>
       </c>
       <c r="Z62" s="1"/>
@@ -4652,18 +4728,18 @@
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="19"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G63" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="G63:G65" si="28">_xlfn.XLOOKUP(B63,$B$3:$B$19,$C$3:$C$19)</f>
         <v>#N/A</v>
       </c>
       <c r="H63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I63">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="I63:I65" si="29">_xlfn.XLOOKUP(D63,$H$3:$H$7,$I$3:$I$7)</f>
         <v>0</v>
       </c>
       <c r="J63" t="e">
@@ -4676,7 +4752,7 @@
       </c>
       <c r="M63">
         <f t="shared" si="21"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N63" s="1" t="str">
         <f t="shared" si="11"/>
@@ -4692,7 +4768,7 @@
       </c>
       <c r="Q63">
         <f t="shared" si="23"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R63" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4707,7 +4783,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U63">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="U63:U65" si="30">B63</f>
         <v>0</v>
       </c>
       <c r="V63" s="1" t="str">
@@ -4715,7 +4791,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W63">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="W63:W65" si="31">C63</f>
         <v>0</v>
       </c>
       <c r="X63" s="1" t="str">
@@ -4723,25 +4799,26 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="Y63:Y65" si="32">D63</f>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="19"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G64" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="H64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J64" t="e">
@@ -4754,7 +4831,7 @@
       </c>
       <c r="M64">
         <f t="shared" si="21"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N64" s="1" t="str">
         <f t="shared" si="11"/>
@@ -4770,7 +4847,7 @@
       </c>
       <c r="Q64">
         <f t="shared" si="23"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R64" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4785,7 +4862,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V64" s="1" t="str">
@@ -4793,7 +4870,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X64" s="1" t="str">
@@ -4801,30 +4878,29 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y64">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Z64" s="1"/>
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="19"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G65" t="e">
-        <f t="shared" ref="G65:G71" si="34">_xlfn.XLOOKUP(B65,$B$3:$B$19,$C$3:$C$19)</f>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="H65">
-        <f t="shared" ref="H65:H71" si="35">_xlfn.XLOOKUP(C65,$E$3:$E$11,$F$3:$F$11)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" ref="I65:I71" si="36">_xlfn.XLOOKUP(D65,$H$3:$H$7,$I$3:$I$7)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J65" t="e">
-        <f t="shared" ref="J65:J71" si="37">G65+H65+I65</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="L65" s="1" t="str">
@@ -4832,15 +4908,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:M71" si="38">A65</f>
-        <v>86</v>
+        <f t="shared" si="21"/>
+        <v>84</v>
       </c>
       <c r="N65" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O65" t="e">
-        <f t="shared" ref="O65:O71" si="39">DEC2HEX(J65,2)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="P65" s="1" t="str">
@@ -4848,15 +4924,15 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q65">
-        <f t="shared" ref="Q65:Q71" si="40">M65+1</f>
-        <v>87</v>
+        <f t="shared" si="23"/>
+        <v>85</v>
       </c>
       <c r="R65" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S65" t="str">
-        <f t="shared" ref="S65:S71" si="41">DEC2HEX(E65,2)</f>
+        <f t="shared" si="24"/>
         <v>00</v>
       </c>
       <c r="T65" s="1" t="str">
@@ -4864,7 +4940,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U65">
-        <f t="shared" ref="U65:U71" si="42">B65</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V65" s="1" t="str">
@@ -4872,7 +4948,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W65">
-        <f t="shared" ref="W65:W71" si="43">C65</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X65" s="1" t="str">
@@ -4880,29 +4956,30 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y65">
-        <f t="shared" ref="Y65:Y71" si="44">D65</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="19"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G66" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="G66:G72" si="33">_xlfn.XLOOKUP(B66,$B$3:$B$19,$C$3:$C$19)</f>
         <v>#N/A</v>
       </c>
       <c r="H66">
-        <f t="shared" si="35"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I66:I72" si="34">_xlfn.XLOOKUP(D66,$H$3:$H$7,$I$3:$I$7)</f>
         <v>0</v>
       </c>
       <c r="J66" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="J66:J72" si="35">G66+H66+I66</f>
         <v>#N/A</v>
       </c>
       <c r="L66" s="1" t="str">
@@ -4910,15 +4987,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="M66">
-        <f t="shared" si="38"/>
-        <v>88</v>
+        <f t="shared" ref="M66:M72" si="36">A66</f>
+        <v>86</v>
       </c>
       <c r="N66" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O66" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="O66:O72" si="37">DEC2HEX(J66,2)</f>
         <v>#N/A</v>
       </c>
       <c r="P66" s="1" t="str">
@@ -4926,15 +5003,15 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q66">
-        <f t="shared" si="40"/>
-        <v>89</v>
+        <f t="shared" ref="Q66:Q72" si="38">M66+1</f>
+        <v>87</v>
       </c>
       <c r="R66" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S66" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="S66:S72" si="39">DEC2HEX(E66,2)</f>
         <v>00</v>
       </c>
       <c r="T66" s="1" t="str">
@@ -4942,7 +5019,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U66">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="U66:U72" si="40">B66</f>
         <v>0</v>
       </c>
       <c r="V66" s="1" t="str">
@@ -4950,7 +5027,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W66">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="W66:W72" si="41">C66</f>
         <v>0</v>
       </c>
       <c r="X66" s="1" t="str">
@@ -4958,30 +5035,29 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y66">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="Z66" s="1"/>
+        <f t="shared" ref="Y66:Y72" si="42">D66</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="19"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G67" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I67">
         <f t="shared" si="34"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="e">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J67" t="e">
-        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="L67" s="1" t="str">
@@ -4989,15 +5065,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="M67">
-        <f t="shared" si="38"/>
-        <v>90</v>
+        <f t="shared" si="36"/>
+        <v>88</v>
       </c>
       <c r="N67" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O67" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="P67" s="1" t="str">
@@ -5005,15 +5081,15 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q67">
-        <f t="shared" si="40"/>
-        <v>91</v>
+        <f t="shared" si="38"/>
+        <v>89</v>
       </c>
       <c r="R67" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S67" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>00</v>
       </c>
       <c r="T67" s="1" t="str">
@@ -5021,7 +5097,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U67">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V67" s="1" t="str">
@@ -5029,7 +5105,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W67">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X67" s="1" t="str">
@@ -5037,7 +5113,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z67" s="1"/>
@@ -5045,22 +5121,22 @@
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="19"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G68" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="34"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="e">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J68" t="e">
-        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="L68" s="1" t="str">
@@ -5068,15 +5144,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="M68">
-        <f t="shared" si="38"/>
-        <v>92</v>
+        <f t="shared" si="36"/>
+        <v>90</v>
       </c>
       <c r="N68" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O68" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="P68" s="1" t="str">
@@ -5084,15 +5160,15 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q68">
-        <f t="shared" si="40"/>
-        <v>93</v>
+        <f t="shared" si="38"/>
+        <v>91</v>
       </c>
       <c r="R68" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>00</v>
       </c>
       <c r="T68" s="1" t="str">
@@ -5100,7 +5176,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U68">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V68" s="1" t="str">
@@ -5108,7 +5184,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W68">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X68" s="1" t="str">
@@ -5116,29 +5192,30 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y68">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="19"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G69" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="34"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="e">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J69" t="e">
-        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="L69" s="1" t="str">
@@ -5146,15 +5223,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="M69">
-        <f t="shared" si="38"/>
-        <v>94</v>
+        <f t="shared" si="36"/>
+        <v>92</v>
       </c>
       <c r="N69" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O69" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="P69" s="1" t="str">
@@ -5162,15 +5239,15 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q69">
-        <f t="shared" si="40"/>
-        <v>95</v>
+        <f t="shared" si="38"/>
+        <v>93</v>
       </c>
       <c r="R69" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>00</v>
       </c>
       <c r="T69" s="1" t="str">
@@ -5178,7 +5255,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U69">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V69" s="1" t="str">
@@ -5186,7 +5263,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W69">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X69" s="1" t="str">
@@ -5194,29 +5271,29 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y69">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="19"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G70" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="34"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="e">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J70" t="e">
-        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="L70" s="1" t="str">
@@ -5224,15 +5301,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="M70">
-        <f t="shared" si="38"/>
-        <v>96</v>
+        <f t="shared" si="36"/>
+        <v>94</v>
       </c>
       <c r="N70" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O70" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="P70" s="1" t="str">
@@ -5240,15 +5317,15 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q70">
-        <f t="shared" si="40"/>
-        <v>97</v>
+        <f t="shared" si="38"/>
+        <v>95</v>
       </c>
       <c r="R70" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S70" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>00</v>
       </c>
       <c r="T70" s="1" t="str">
@@ -5256,7 +5333,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V70" s="1" t="str">
@@ -5264,7 +5341,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W70">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X70" s="1" t="str">
@@ -5272,29 +5349,29 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="19"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G71" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="34"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="e">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J71" t="e">
-        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="L71" s="1" t="str">
@@ -5302,15 +5379,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="M71">
-        <f t="shared" si="38"/>
-        <v>98</v>
+        <f t="shared" si="36"/>
+        <v>96</v>
       </c>
       <c r="N71" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O71" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="P71" s="1" t="str">
@@ -5318,15 +5395,15 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q71">
-        <f t="shared" si="40"/>
-        <v>99</v>
+        <f t="shared" si="38"/>
+        <v>97</v>
       </c>
       <c r="R71" s="1" t="str">
         <f t="shared" si="15"/>
         <v>=&gt;x"</v>
       </c>
       <c r="S71" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>00</v>
       </c>
       <c r="T71" s="1" t="str">
@@ -5334,7 +5411,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V71" s="1" t="str">
@@ -5342,7 +5419,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W71">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X71" s="1" t="str">
@@ -5350,30 +5427,91 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y71">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="19"/>
+        <v>98</v>
+      </c>
+      <c r="G72" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L72" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="36"/>
+        <v>98</v>
+      </c>
+      <c r="N72" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="O72" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P72" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">",  </v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="38"/>
+        <v>99</v>
+      </c>
+      <c r="R72" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>=&gt;x"</v>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="39"/>
+        <v>00</v>
+      </c>
+      <c r="T72" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">", -- </v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -5381,13 +5519,16 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -5395,13 +5536,13 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5409,41 +5550,44 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
       </c>
       <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>66</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>2</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>35</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -5451,41 +5595,38 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="E93">
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -5493,13 +5634,13 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+      <c r="E95">
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5507,55 +5648,52 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>67</v>
-      </c>
-      <c r="B98" t="s">
-        <v>0</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>67</v>
+      </c>
       <c r="B99" t="s">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -5563,13 +5701,16 @@
       <c r="E99">
         <v>0</v>
       </c>
+      <c r="F99" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -5577,9 +5718,6 @@
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
@@ -5592,10 +5730,10 @@
         <v>18</v>
       </c>
       <c r="E101">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -5603,10 +5741,16 @@
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>129</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -5614,16 +5758,10 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
-      </c>
-      <c r="E103">
-        <v>5</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -5634,7 +5772,13 @@
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -5642,17 +5786,28 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
         <v>20</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>63</v>
       </c>
     </row>

--- a/resources/Assembly.xlsx
+++ b/resources/Assembly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\gtxl\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689FFC87-5C0C-4655-AB17-DB0C9080D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12050C4-81AE-4CF3-BED7-73ED8D1B6C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5505" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="133">
   <si>
     <t>ld</t>
   </si>
@@ -340,9 +340,6 @@
     <t>-- store Y  to 0x8001</t>
   </si>
   <si>
-    <t>-- store X to 0x8002</t>
-  </si>
-  <si>
     <t>Zero Page Registers</t>
   </si>
   <si>
@@ -377,9 +374,6 @@
   </si>
   <si>
     <t>--load AC</t>
-  </si>
-  <si>
-    <t>-- load X</t>
   </si>
   <si>
     <t>-- load Y</t>
@@ -437,6 +431,12 @@
   </si>
   <si>
     <t>-- branch to BOOT_VECTOR if equal</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>-- Set X to 0x55</t>
   </si>
 </sst>
 </file>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O3">
         <v>32</v>
@@ -860,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O4">
         <v>46</v>
@@ -892,10 +892,10 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O5">
         <v>52</v>
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F13">
         <v>16</v>
@@ -1058,7 +1058,7 @@
         <v>240</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F15">
         <v>24</v>
@@ -1073,7 +1073,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -1103,7 +1103,7 @@
         <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1118,15 +1118,21 @@
         <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20">
         <v>28</v>
@@ -1163,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
@@ -1172,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G58" si="1">_xlfn.XLOOKUP(B23,$B$3:$B$19,$C$3:$C$19)</f>
+        <f>_xlfn.XLOOKUP(B23,$B$3:$B$20,$C$3:$C$20)</f>
         <v>192</v>
       </c>
       <c r="H23">
@@ -1180,11 +1186,11 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I58" si="2">_xlfn.XLOOKUP(D23,$H$3:$H$7,$I$3:$I$7)</f>
+        <f t="shared" ref="I23:I58" si="1">_xlfn.XLOOKUP(D23,$H$3:$H$7,$I$3:$I$7)</f>
         <v>2</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:J59" si="3">G23+H23+I23</f>
+        <f t="shared" ref="J23:J59" si="2">G23+H23+I23</f>
         <v>194</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -1212,28 +1218,28 @@
         <v>28</v>
       </c>
       <c r="S23" t="str">
-        <f t="shared" ref="S23:S60" si="4">DEC2HEX(E23,2)</f>
+        <f t="shared" ref="S23:S60" si="3">DEC2HEX(E23,2)</f>
         <v>00</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" ref="U23:U58" si="5">B23</f>
+        <f t="shared" ref="U23:U58" si="4">B23</f>
         <v>st</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" ref="W23:W58" si="6">C23</f>
+        <f t="shared" ref="W23:W58" si="5">C23</f>
         <v>[80,D]</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" ref="Y23:Y58" si="7">D23</f>
+        <f t="shared" ref="Y23:Y58" si="6">D23</f>
         <v>AC</v>
       </c>
       <c r="Z23" s="1" t="s">
@@ -1252,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1261,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G24:G72" si="7">_xlfn.XLOOKUP(B24,$B$3:$B$20,$C$3:$C$20)</f>
         <v>192</v>
       </c>
       <c r="H24">
@@ -1269,11 +1275,11 @@
         <v>0</v>
       </c>
       <c r="I24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="L24" s="1" t="str">
@@ -1305,7 +1311,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>01</v>
       </c>
       <c r="T24" s="1" t="str">
@@ -1313,7 +1319,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>st</v>
       </c>
       <c r="V24" s="1" t="str">
@@ -1321,7 +1327,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[80,D]</v>
       </c>
       <c r="X24" s="1" t="str">
@@ -1329,7 +1335,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Y</v>
       </c>
       <c r="Z24" s="1" t="s">
@@ -1345,29 +1351,29 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H25">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1383,7 +1389,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P25" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1398,15 +1404,15 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="4"/>
-        <v>3F</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="T25" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ld</v>
       </c>
       <c r="V25" s="1" t="str">
@@ -1414,16 +1420,22 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="6"/>
-        <v>Y</v>
+        <f t="shared" si="5"/>
+        <v>X</v>
       </c>
       <c r="X25" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>D</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -1432,29 +1444,23 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="H26">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1470,7 +1476,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" si="12"/>
-        <v>0D</v>
+        <v>02</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1485,7 +1491,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T26" s="1" t="str">
@@ -1493,28 +1499,26 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="5"/>
-        <v>ld</v>
+        <f t="shared" si="4"/>
+        <v>nop</v>
       </c>
       <c r="V26" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W26" t="str">
-        <f t="shared" si="6"/>
-        <v>[Y,X],AC</v>
+      <c r="W26">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="X26" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y26" t="str">
-        <f t="shared" si="7"/>
-        <v>MEM</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="Y26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1522,32 +1526,23 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="7"/>
         <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>192</v>
       </c>
       <c r="H27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>194</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1563,7 +1558,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" si="12"/>
-        <v>C2</v>
+        <v>02</v>
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1578,36 +1573,34 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+        <f t="shared" si="3"/>
+        <v>00</v>
       </c>
       <c r="T27" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="5"/>
-        <v>st</v>
+        <f t="shared" si="4"/>
+        <v>nop</v>
       </c>
       <c r="V27" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W27" t="str">
-        <f t="shared" si="6"/>
-        <v>[80,D]</v>
+      <c r="W27">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="X27" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y27" t="str">
-        <f t="shared" si="7"/>
-        <v>AC</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="Y27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1615,32 +1608,23 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="H28">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1656,7 +1640,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>02</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1671,38 +1655,32 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>00</v>
       </c>
       <c r="T28" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="5"/>
-        <v>ld</v>
+        <f t="shared" si="4"/>
+        <v>nop</v>
       </c>
       <c r="V28" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W28" t="str">
-        <f t="shared" si="6"/>
-        <v>Y</v>
+      <c r="W28">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="X28" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y28" t="str">
-        <f t="shared" si="7"/>
-        <v>D</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>92</v>
+      <c r="Y28">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -1711,32 +1689,23 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="7"/>
         <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>56</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>192</v>
       </c>
       <c r="H29">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="3"/>
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1752,7 +1721,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" si="12"/>
-        <v>CC</v>
+        <v>02</v>
       </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1767,36 +1736,34 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <f t="shared" si="3"/>
+        <v>00</v>
       </c>
       <c r="T29" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="5"/>
-        <v>st</v>
+        <f t="shared" si="4"/>
+        <v>nop</v>
       </c>
       <c r="V29" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W29" t="str">
-        <f t="shared" si="6"/>
-        <v>[Y,X]</v>
+      <c r="W29">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="X29" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y29" t="str">
-        <f t="shared" si="7"/>
-        <v>D</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="Y29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1807,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -1816,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H30">
@@ -1824,11 +1791,11 @@
         <v>0</v>
       </c>
       <c r="I30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L30" s="1" t="str">
@@ -1860,7 +1827,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>03</v>
       </c>
       <c r="T30" s="1" t="str">
@@ -1868,7 +1835,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ld</v>
       </c>
       <c r="V30" s="1" t="str">
@@ -1876,7 +1843,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[80,D]</v>
       </c>
       <c r="X30" s="1" t="str">
@@ -1884,11 +1851,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MEM</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD30" s="1" t="s">
         <v>93</v>
@@ -1912,7 +1879,7 @@
         <v>55</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="H31">
@@ -1920,11 +1887,11 @@
         <v>0</v>
       </c>
       <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="L31" s="1" t="str">
@@ -1956,7 +1923,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="T31" s="1" t="str">
@@ -1964,7 +1931,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>xor</v>
       </c>
       <c r="V31" s="1" t="str">
@@ -1972,7 +1939,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>AC</v>
       </c>
       <c r="X31" s="1" t="str">
@@ -1980,11 +1947,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -2002,7 +1969,7 @@
         <v>32</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="H32">
@@ -2010,11 +1977,11 @@
         <v>0</v>
       </c>
       <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="L32" s="1" t="str">
@@ -2046,7 +2013,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="T32" s="1" t="str">
@@ -2054,7 +2021,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>beq</v>
       </c>
       <c r="V32" s="1" t="str">
@@ -2062,7 +2029,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X32" s="1" t="str">
@@ -2070,11 +2037,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
@@ -2086,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -2095,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H33">
@@ -2103,11 +2070,11 @@
         <v>0</v>
       </c>
       <c r="I33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L33" s="1" t="str">
@@ -2139,7 +2106,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>03</v>
       </c>
       <c r="T33" s="1" t="str">
@@ -2147,7 +2114,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ld</v>
       </c>
       <c r="V33" s="1" t="str">
@@ -2155,7 +2122,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[80,D]</v>
       </c>
       <c r="X33" s="1" t="str">
@@ -2163,11 +2130,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MEM</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
@@ -2188,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="H34">
@@ -2196,11 +2163,11 @@
         <v>0</v>
       </c>
       <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="L34" s="1" t="str">
@@ -2232,7 +2199,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>01</v>
       </c>
       <c r="T34" s="1" t="str">
@@ -2240,7 +2207,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>xor</v>
       </c>
       <c r="V34" s="1" t="str">
@@ -2248,7 +2215,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>AC</v>
       </c>
       <c r="X34" s="1" t="str">
@@ -2256,11 +2223,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD34" s="1" t="s">
         <v>94</v>
@@ -2281,7 +2248,7 @@
         <v>46</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="H35">
@@ -2289,11 +2256,11 @@
         <v>0</v>
       </c>
       <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="L35" s="1" t="str">
@@ -2325,7 +2292,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2E</v>
       </c>
       <c r="T35" s="1" t="str">
@@ -2333,7 +2300,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>beq</v>
       </c>
       <c r="V35" s="1" t="str">
@@ -2341,7 +2308,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X35" s="1" t="str">
@@ -2349,11 +2316,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
@@ -2374,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H36">
@@ -2382,11 +2349,11 @@
         <v>0</v>
       </c>
       <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L36" s="1" t="str">
@@ -2418,7 +2385,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>01</v>
       </c>
       <c r="T36" s="1" t="str">
@@ -2426,7 +2393,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ld</v>
       </c>
       <c r="V36" s="1" t="str">
@@ -2434,7 +2401,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>AC</v>
       </c>
       <c r="X36" s="1" t="str">
@@ -2442,7 +2409,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="AD36" s="1" t="s">
@@ -2458,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -2467,7 +2434,7 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
       <c r="H37">
@@ -2475,11 +2442,11 @@
         <v>0</v>
       </c>
       <c r="I37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="L37" s="1" t="str">
@@ -2511,7 +2478,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>03</v>
       </c>
       <c r="T37" s="1" t="str">
@@ -2519,7 +2486,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>st</v>
       </c>
       <c r="V37" s="1" t="str">
@@ -2527,7 +2494,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[80,D]</v>
       </c>
       <c r="X37" s="1" t="str">
@@ -2535,7 +2502,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>AC</v>
       </c>
       <c r="Z37" s="1" t="s">
@@ -2551,7 +2518,7 @@
         <v>63</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>227</v>
       </c>
       <c r="H38">
@@ -2559,11 +2526,11 @@
         <v>0</v>
       </c>
       <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="L38" s="1" t="str">
@@ -2595,7 +2562,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T38" s="1" t="str">
@@ -2603,7 +2570,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>reti</v>
       </c>
       <c r="V38" s="1" t="str">
@@ -2611,7 +2578,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X38" s="1" t="str">
@@ -2619,7 +2586,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z38" s="1" t="s">
@@ -2647,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <f>_xlfn.XLOOKUP(B39,$B$3:$B$19,$C$3:$C$19)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H39">
@@ -2659,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L39" s="1" t="str">
@@ -2722,7 +2689,7 @@
         <v>42</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
@@ -2731,32 +2698,23 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="G40">
-        <f>_xlfn.XLOOKUP(B40,$B$3:$B$19,$C$3:$C$19)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="H40">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <f>_xlfn.XLOOKUP(D40,$H$3:$H$7,$I$3:$I$7)</f>
         <v>0</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2772,7 +2730,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>02</v>
       </c>
       <c r="P40" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2796,30 +2754,25 @@
       </c>
       <c r="U40" t="str">
         <f>B40</f>
-        <v>ld</v>
+        <v>nop</v>
       </c>
       <c r="V40" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W40" t="str">
+      <c r="W40">
         <f>C40</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="X40" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y40" t="str">
+      <c r="Y40">
         <f>D40</f>
-        <v>D</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -2839,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <f>_xlfn.XLOOKUP(B41,$B$3:$B$19,$C$3:$C$19)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H41">
@@ -2851,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L41" s="1" t="str">
@@ -2929,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H42">
@@ -2937,11 +2890,11 @@
         <v>0</v>
       </c>
       <c r="I42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L42" s="1" t="str">
@@ -2973,7 +2926,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T42" s="1" t="str">
@@ -2981,7 +2934,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ld</v>
       </c>
       <c r="V42" s="1" t="str">
@@ -2989,7 +2942,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[80,D],AC</v>
       </c>
       <c r="X42" s="1" t="str">
@@ -2997,11 +2950,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MEM</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
@@ -3010,32 +2966,23 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="G43">
-        <f>_xlfn.XLOOKUP(B43,$B$3:$B$19,$C$3:$C$19)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="H43">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <f>_xlfn.XLOOKUP(D43,$H$3:$H$7,$I$3:$I$7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3051,7 +2998,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>02</v>
       </c>
       <c r="P43" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3067,7 +3014,7 @@
       </c>
       <c r="S43" t="str">
         <f>DEC2HEX(E43,2)</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="T43" s="1" t="str">
         <f t="shared" si="16"/>
@@ -3075,27 +3022,25 @@
       </c>
       <c r="U43" t="str">
         <f>B43</f>
-        <v>ld</v>
+        <v>nop</v>
       </c>
       <c r="V43" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W43" t="str">
+      <c r="W43">
         <f>C43</f>
-        <v>[80,D],X</v>
+        <v>0</v>
       </c>
       <c r="X43" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y43" t="str">
+      <c r="Y43">
         <f>D43</f>
-        <v>MEM</v>
-      </c>
-      <c r="Z43" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -3115,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="G44">
-        <f>_xlfn.XLOOKUP(B44,$B$3:$B$19,$C$3:$C$19)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H44">
@@ -3127,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="J44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="L44" s="1" t="str">
@@ -3187,7 +3132,7 @@
         <v>MEM</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
@@ -3199,7 +3144,7 @@
         <v>63</v>
       </c>
       <c r="G45">
-        <f>_xlfn.XLOOKUP(B45,$B$3:$B$19,$C$3:$C$19)</f>
+        <f t="shared" si="7"/>
         <v>227</v>
       </c>
       <c r="H45">
@@ -3211,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>227</v>
       </c>
       <c r="L45" s="1" t="str">
@@ -3292,7 +3237,7 @@
         <v>55</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H46">
@@ -3300,11 +3245,11 @@
         <v>0</v>
       </c>
       <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L46" s="1" t="str">
@@ -3336,7 +3281,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="T46" s="1" t="str">
@@ -3344,7 +3289,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ld</v>
       </c>
       <c r="V46" s="1" t="str">
@@ -3352,7 +3297,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>AC</v>
       </c>
       <c r="X46" s="1" t="str">
@@ -3360,12 +3305,12 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AD46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
@@ -3377,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -3386,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
       <c r="H47">
@@ -3394,11 +3339,11 @@
         <v>0</v>
       </c>
       <c r="I47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="L47" s="1" t="str">
@@ -3430,7 +3375,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>03</v>
       </c>
       <c r="T47" s="1" t="str">
@@ -3438,7 +3383,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>st</v>
       </c>
       <c r="V47" s="1" t="str">
@@ -3446,7 +3391,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[80,D]</v>
       </c>
       <c r="X47" s="1" t="str">
@@ -3454,11 +3399,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>AC</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
@@ -3479,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H48">
@@ -3487,11 +3432,11 @@
         <v>0</v>
       </c>
       <c r="I48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L48" s="1" t="str">
@@ -3523,7 +3468,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T48" s="1" t="str">
@@ -3531,7 +3476,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ld</v>
       </c>
       <c r="V48" s="1" t="str">
@@ -3539,7 +3484,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>AC</v>
       </c>
       <c r="X48" s="1" t="str">
@@ -3547,14 +3492,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
@@ -3566,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -3575,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
       <c r="H49">
@@ -3583,11 +3528,11 @@
         <v>0</v>
       </c>
       <c r="I49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="L49" s="1" t="str">
@@ -3619,7 +3564,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>04</v>
       </c>
       <c r="T49" s="1" t="str">
@@ -3627,7 +3572,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>st</v>
       </c>
       <c r="V49" s="1" t="str">
@@ -3635,7 +3580,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[80,D]</v>
       </c>
       <c r="X49" s="1" t="str">
@@ -3643,14 +3588,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>AC</v>
       </c>
       <c r="Z49" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
@@ -3662,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
@@ -3671,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H50">
@@ -3679,11 +3624,11 @@
         <v>0</v>
       </c>
       <c r="I50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L50" s="1" t="str">
@@ -3715,7 +3660,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>04</v>
       </c>
       <c r="T50" s="1" t="str">
@@ -3723,7 +3668,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ld</v>
       </c>
       <c r="V50" s="1" t="str">
@@ -3731,7 +3676,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[80,D]</v>
       </c>
       <c r="X50" s="1" t="str">
@@ -3739,7 +3684,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MEM</v>
       </c>
       <c r="Z50" s="1" t="s">
@@ -3764,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="H51">
@@ -3772,11 +3717,11 @@
         <v>0</v>
       </c>
       <c r="I51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="L51" s="1" t="str">
@@ -3808,7 +3753,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>01</v>
       </c>
       <c r="T51" s="1" t="str">
@@ -3816,7 +3761,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>add</v>
       </c>
       <c r="V51" s="1" t="str">
@@ -3824,7 +3769,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>AC</v>
       </c>
       <c r="X51" s="1" t="str">
@@ -3832,7 +3777,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="Z51" s="1" t="s">
@@ -3848,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H52">
@@ -3862,11 +3807,11 @@
         <v>24</v>
       </c>
       <c r="I52">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="L52" s="1" t="str">
@@ -3898,7 +3843,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T52" s="1" t="str">
@@ -3906,7 +3851,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ld</v>
       </c>
       <c r="V52" s="1" t="str">
@@ -3914,7 +3859,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>VID</v>
       </c>
       <c r="X52" s="1" t="str">
@@ -3922,11 +3867,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>AC</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
@@ -3944,7 +3889,7 @@
         <v>52</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>252</v>
       </c>
       <c r="H53">
@@ -3952,11 +3897,11 @@
         <v>0</v>
       </c>
       <c r="I53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="L53" s="1" t="str">
@@ -3988,7 +3933,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="T53" s="1" t="str">
@@ -3996,7 +3941,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>bra</v>
       </c>
       <c r="V53" s="1" t="str">
@@ -4004,7 +3949,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X53" s="1" t="str">
@@ -4012,11 +3957,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
@@ -4025,7 +3970,7 @@
         <v>62</v>
       </c>
       <c r="G54" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H54">
@@ -4033,11 +3978,11 @@
         <v>0</v>
       </c>
       <c r="I54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J54" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L54" s="1" t="str">
@@ -4069,7 +4014,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T54" s="1" t="str">
@@ -4077,7 +4022,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V54" s="1" t="str">
@@ -4085,7 +4030,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X54" s="1" t="str">
@@ -4093,7 +4038,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4103,7 +4048,7 @@
         <v>64</v>
       </c>
       <c r="G55" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H55">
@@ -4111,11 +4056,11 @@
         <v>0</v>
       </c>
       <c r="I55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J55" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L55" s="1" t="str">
@@ -4147,7 +4092,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T55" s="1" t="str">
@@ -4155,7 +4100,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V55" s="1" t="str">
@@ -4163,7 +4108,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X55" s="1" t="str">
@@ -4171,7 +4116,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4181,7 +4126,7 @@
         <v>66</v>
       </c>
       <c r="G56" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H56">
@@ -4189,11 +4134,11 @@
         <v>0</v>
       </c>
       <c r="I56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J56" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L56" s="1" t="str">
@@ -4225,7 +4170,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T56" s="1" t="str">
@@ -4233,7 +4178,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V56" s="1" t="str">
@@ -4241,7 +4186,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X56" s="1" t="str">
@@ -4249,7 +4194,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z56" s="1"/>
@@ -4260,7 +4205,7 @@
         <v>68</v>
       </c>
       <c r="G57" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H57">
@@ -4268,11 +4213,11 @@
         <v>0</v>
       </c>
       <c r="I57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J57" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L57" s="1" t="str">
@@ -4304,7 +4249,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T57" s="1" t="str">
@@ -4312,7 +4257,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V57" s="1" t="str">
@@ -4320,7 +4265,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X57" s="1" t="str">
@@ -4328,7 +4273,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4338,7 +4283,7 @@
         <v>70</v>
       </c>
       <c r="G58" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H58">
@@ -4346,11 +4291,11 @@
         <v>0</v>
       </c>
       <c r="I58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J58" t="e">
-        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="L58" s="1" t="str">
@@ -4382,7 +4327,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T58" s="1" t="str">
@@ -4390,7 +4335,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V58" s="1" t="str">
@@ -4398,7 +4343,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X58" s="1" t="str">
@@ -4406,7 +4351,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4416,7 +4361,7 @@
         <v>72</v>
       </c>
       <c r="G59" t="e">
-        <f>_xlfn.XLOOKUP(B59,$B$3:$B$19,$C$3:$C$19)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H59">
@@ -4428,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L59" s="1" t="str">
@@ -4460,7 +4405,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T59" s="1" t="str">
@@ -4495,7 +4440,7 @@
         <v>74</v>
       </c>
       <c r="G60" t="e">
-        <f>_xlfn.XLOOKUP(B60,$B$3:$B$19,$C$3:$C$19)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H60">
@@ -4539,7 +4484,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T60" s="1" t="str">
@@ -4573,7 +4518,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="e">
-        <f>_xlfn.XLOOKUP(B61,$B$3:$B$19,$C$3:$C$19)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H61">
@@ -4652,7 +4597,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="e">
-        <f>_xlfn.XLOOKUP(B62,$B$3:$B$19,$C$3:$C$19)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H62">
@@ -4731,7 +4676,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="e">
-        <f t="shared" ref="G63:G65" si="28">_xlfn.XLOOKUP(B63,$B$3:$B$19,$C$3:$C$19)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H63">
@@ -4739,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:I65" si="29">_xlfn.XLOOKUP(D63,$H$3:$H$7,$I$3:$I$7)</f>
+        <f t="shared" ref="I63:I65" si="28">_xlfn.XLOOKUP(D63,$H$3:$H$7,$I$3:$I$7)</f>
         <v>0</v>
       </c>
       <c r="J63" t="e">
@@ -4783,7 +4728,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U63">
-        <f t="shared" ref="U63:U65" si="30">B63</f>
+        <f t="shared" ref="U63:U65" si="29">B63</f>
         <v>0</v>
       </c>
       <c r="V63" s="1" t="str">
@@ -4791,7 +4736,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W63">
-        <f t="shared" ref="W63:W65" si="31">C63</f>
+        <f t="shared" ref="W63:W65" si="30">C63</f>
         <v>0</v>
       </c>
       <c r="X63" s="1" t="str">
@@ -4799,7 +4744,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y63">
-        <f t="shared" ref="Y63:Y65" si="32">D63</f>
+        <f t="shared" ref="Y63:Y65" si="31">D63</f>
         <v>0</v>
       </c>
       <c r="Z63" s="1"/>
@@ -4810,7 +4755,7 @@
         <v>82</v>
       </c>
       <c r="G64" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H64">
@@ -4818,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J64" t="e">
@@ -4862,7 +4807,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V64" s="1" t="str">
@@ -4870,7 +4815,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="X64" s="1" t="str">
@@ -4878,7 +4823,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -4888,7 +4833,7 @@
         <v>84</v>
       </c>
       <c r="G65" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H65">
@@ -4896,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J65" t="e">
@@ -4940,7 +4885,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V65" s="1" t="str">
@@ -4948,7 +4893,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="X65" s="1" t="str">
@@ -4956,7 +4901,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z65" s="1"/>
@@ -4967,7 +4912,7 @@
         <v>86</v>
       </c>
       <c r="G66" t="e">
-        <f t="shared" ref="G66:G72" si="33">_xlfn.XLOOKUP(B66,$B$3:$B$19,$C$3:$C$19)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H66">
@@ -4975,11 +4920,11 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I72" si="34">_xlfn.XLOOKUP(D66,$H$3:$H$7,$I$3:$I$7)</f>
+        <f t="shared" ref="I66:I72" si="32">_xlfn.XLOOKUP(D66,$H$3:$H$7,$I$3:$I$7)</f>
         <v>0</v>
       </c>
       <c r="J66" t="e">
-        <f t="shared" ref="J66:J72" si="35">G66+H66+I66</f>
+        <f t="shared" ref="J66:J72" si="33">G66+H66+I66</f>
         <v>#N/A</v>
       </c>
       <c r="L66" s="1" t="str">
@@ -4987,7 +4932,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M72" si="36">A66</f>
+        <f t="shared" ref="M66:M72" si="34">A66</f>
         <v>86</v>
       </c>
       <c r="N66" s="1" t="str">
@@ -4995,7 +4940,7 @@
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O66" t="e">
-        <f t="shared" ref="O66:O72" si="37">DEC2HEX(J66,2)</f>
+        <f t="shared" ref="O66:O72" si="35">DEC2HEX(J66,2)</f>
         <v>#N/A</v>
       </c>
       <c r="P66" s="1" t="str">
@@ -5003,7 +4948,7 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q72" si="38">M66+1</f>
+        <f t="shared" ref="Q66:Q72" si="36">M66+1</f>
         <v>87</v>
       </c>
       <c r="R66" s="1" t="str">
@@ -5011,7 +4956,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S66" t="str">
-        <f t="shared" ref="S66:S72" si="39">DEC2HEX(E66,2)</f>
+        <f t="shared" ref="S66:S72" si="37">DEC2HEX(E66,2)</f>
         <v>00</v>
       </c>
       <c r="T66" s="1" t="str">
@@ -5019,7 +4964,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U66">
-        <f t="shared" ref="U66:U72" si="40">B66</f>
+        <f t="shared" ref="U66:U72" si="38">B66</f>
         <v>0</v>
       </c>
       <c r="V66" s="1" t="str">
@@ -5027,7 +4972,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W66">
-        <f t="shared" ref="W66:W72" si="41">C66</f>
+        <f t="shared" ref="W66:W72" si="39">C66</f>
         <v>0</v>
       </c>
       <c r="X66" s="1" t="str">
@@ -5035,7 +4980,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y66">
-        <f t="shared" ref="Y66:Y72" si="42">D66</f>
+        <f t="shared" ref="Y66:Y72" si="40">D66</f>
         <v>0</v>
       </c>
     </row>
@@ -5045,27 +4990,27 @@
         <v>88</v>
       </c>
       <c r="G67" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J67" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
-      <c r="H67">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J67" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
       <c r="L67" s="1" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M67">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>88</v>
       </c>
       <c r="N67" s="1" t="str">
@@ -5073,7 +5018,7 @@
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O67" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="P67" s="1" t="str">
@@ -5081,7 +5026,7 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>89</v>
       </c>
       <c r="R67" s="1" t="str">
@@ -5089,7 +5034,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S67" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>00</v>
       </c>
       <c r="T67" s="1" t="str">
@@ -5097,7 +5042,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U67">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V67" s="1" t="str">
@@ -5105,7 +5050,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W67">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X67" s="1" t="str">
@@ -5113,7 +5058,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y67">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z67" s="1"/>
@@ -5124,27 +5069,27 @@
         <v>90</v>
       </c>
       <c r="G68" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J68" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
       <c r="L68" s="1" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>90</v>
       </c>
       <c r="N68" s="1" t="str">
@@ -5152,7 +5097,7 @@
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O68" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="P68" s="1" t="str">
@@ -5160,7 +5105,7 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q68">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>91</v>
       </c>
       <c r="R68" s="1" t="str">
@@ -5168,7 +5113,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>00</v>
       </c>
       <c r="T68" s="1" t="str">
@@ -5176,7 +5121,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U68">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V68" s="1" t="str">
@@ -5184,7 +5129,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W68">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X68" s="1" t="str">
@@ -5192,7 +5137,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y68">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z68" s="1"/>
@@ -5203,27 +5148,27 @@
         <v>92</v>
       </c>
       <c r="G69" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J69" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J69" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
       <c r="L69" s="1" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>92</v>
       </c>
       <c r="N69" s="1" t="str">
@@ -5231,7 +5176,7 @@
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O69" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="P69" s="1" t="str">
@@ -5239,7 +5184,7 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q69">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>93</v>
       </c>
       <c r="R69" s="1" t="str">
@@ -5247,7 +5192,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>00</v>
       </c>
       <c r="T69" s="1" t="str">
@@ -5255,7 +5200,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U69">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V69" s="1" t="str">
@@ -5263,7 +5208,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W69">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X69" s="1" t="str">
@@ -5271,7 +5216,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y69">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -5281,27 +5226,27 @@
         <v>94</v>
       </c>
       <c r="G70" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J70" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
       <c r="L70" s="1" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M70">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>94</v>
       </c>
       <c r="N70" s="1" t="str">
@@ -5309,7 +5254,7 @@
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O70" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="P70" s="1" t="str">
@@ -5317,7 +5262,7 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>95</v>
       </c>
       <c r="R70" s="1" t="str">
@@ -5325,7 +5270,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S70" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>00</v>
       </c>
       <c r="T70" s="1" t="str">
@@ -5333,7 +5278,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V70" s="1" t="str">
@@ -5341,7 +5286,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X70" s="1" t="str">
@@ -5349,7 +5294,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -5359,27 +5304,27 @@
         <v>96</v>
       </c>
       <c r="G71" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
-      <c r="H71">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J71" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
       <c r="L71" s="1" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>96</v>
       </c>
       <c r="N71" s="1" t="str">
@@ -5387,7 +5332,7 @@
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O71" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="P71" s="1" t="str">
@@ -5395,7 +5340,7 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q71">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>97</v>
       </c>
       <c r="R71" s="1" t="str">
@@ -5403,7 +5348,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S71" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>00</v>
       </c>
       <c r="T71" s="1" t="str">
@@ -5411,7 +5356,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U71">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V71" s="1" t="str">
@@ -5419,7 +5364,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W71">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X71" s="1" t="str">
@@ -5427,7 +5372,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -5437,27 +5382,27 @@
         <v>98</v>
       </c>
       <c r="G72" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
-      <c r="H72">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J72" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
       <c r="L72" s="1" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M72">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>98</v>
       </c>
       <c r="N72" s="1" t="str">
@@ -5465,7 +5410,7 @@
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="O72" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="P72" s="1" t="str">
@@ -5473,7 +5418,7 @@
         <v xml:space="preserve">",  </v>
       </c>
       <c r="Q72">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>99</v>
       </c>
       <c r="R72" s="1" t="str">
@@ -5481,7 +5426,7 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S72" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>00</v>
       </c>
       <c r="T72" s="1" t="str">
@@ -5489,7 +5434,7 @@
         <v xml:space="preserve">", -- </v>
       </c>
       <c r="U72">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V72" s="1" t="str">
@@ -5497,7 +5442,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W72">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X72" s="1" t="str">
@@ -5505,7 +5450,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y72">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>

--- a/resources/Assembly.xlsx
+++ b/resources/Assembly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\gtxl\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12050C4-81AE-4CF3-BED7-73ED8D1B6C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B45A2D1-A803-457B-8BA8-949FE421C09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5505" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-5625" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="127">
   <si>
     <t>ld</t>
   </si>
@@ -280,12 +280,6 @@
     <t>--move n+1 to vid for output</t>
   </si>
   <si>
-    <t>--store 0x01 to BOOTCNT</t>
-  </si>
-  <si>
-    <t>-- reti to set interrupt enbale</t>
-  </si>
-  <si>
     <t>--store value</t>
   </si>
   <si>
@@ -322,19 +316,10 @@
     <t>--check if booting finished</t>
   </si>
   <si>
-    <t>--check if first boot</t>
-  </si>
-  <si>
-    <t>--first boot</t>
-  </si>
-  <si>
     <t>-- return from interrupt</t>
   </si>
   <si>
     <t>--restore registers</t>
-  </si>
-  <si>
-    <t>-- reti to clear interrupt disable for normal booting</t>
   </si>
   <si>
     <t>-- store Y  to 0x8001</t>
@@ -365,9 +350,6 @@
   </si>
   <si>
     <t>VIDEO_HANDLER</t>
-  </si>
-  <si>
-    <t>-- xor compare with 1</t>
   </si>
   <si>
     <t>BOOT_VECTOR</t>
@@ -415,9 +397,6 @@
     <t>[80,X]</t>
   </si>
   <si>
-    <t>--branch if equal to VIDEO_HANDLER</t>
-  </si>
-  <si>
     <t>-- VIDEO_HANDLER</t>
   </si>
   <si>
@@ -430,13 +409,16 @@
     <t>-- branch back to MAIN_LOOP</t>
   </si>
   <si>
-    <t>-- branch to BOOT_VECTOR if equal</t>
-  </si>
-  <si>
     <t>nop</t>
   </si>
   <si>
     <t>-- Set X to 0x55</t>
+  </si>
+  <si>
+    <t>-- branch to BOOT_VECTOR if not equal</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -757,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:AD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -813,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -828,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O3">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -860,10 +842,10 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O4">
         <v>46</v>
@@ -877,7 +859,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -892,10 +874,10 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O5">
         <v>52</v>
@@ -924,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -935,7 +917,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>16</v>
@@ -947,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -958,7 +940,7 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8">
         <v>20</v>
@@ -972,7 +954,7 @@
         <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9">
         <v>24</v>
@@ -1028,7 +1010,7 @@
         <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F13">
         <v>16</v>
@@ -1058,7 +1040,7 @@
         <v>240</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <v>24</v>
@@ -1073,7 +1055,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1088,7 +1070,7 @@
         <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -1103,7 +1085,7 @@
         <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1118,7 +1100,7 @@
         <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -1126,13 +1108,13 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F20">
         <v>28</v>
@@ -1169,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
@@ -1246,7 +1228,7 @@
         <v>38</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -1258,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1339,7 +1321,7 @@
         <v>Y</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -1351,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1432,10 +1414,10 @@
         <v>D</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -1444,11 +1426,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
       </c>
       <c r="G26">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f t="shared" si="8"/>
@@ -1456,11 +1447,11 @@
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1476,7 +1467,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" si="12"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1492,7 +1483,7 @@
       </c>
       <c r="S26" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>03</v>
       </c>
       <c r="T26" s="1" t="str">
         <f t="shared" si="16"/>
@@ -1500,25 +1491,30 @@
       </c>
       <c r="U26" t="str">
         <f t="shared" si="4"/>
-        <v>nop</v>
+        <v>ld</v>
       </c>
       <c r="V26" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W26">
+      <c r="W26" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>[80,D]</v>
       </c>
       <c r="X26" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y26">
+      <c r="Y26" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1"/>
+        <v>MEM</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1526,11 +1522,20 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>55</v>
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="H27">
         <f t="shared" si="8"/>
@@ -1542,7 +1547,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1558,7 +1563,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" si="12"/>
-        <v>02</v>
+        <v>60</v>
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1574,7 +1579,7 @@
       </c>
       <c r="S27" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>37</v>
       </c>
       <c r="T27" s="1" t="str">
         <f t="shared" si="16"/>
@@ -1582,25 +1587,27 @@
       </c>
       <c r="U27" t="str">
         <f t="shared" si="4"/>
-        <v>nop</v>
+        <v>xor</v>
       </c>
       <c r="V27" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W27">
+      <c r="W27" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>AC</v>
       </c>
       <c r="X27" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y27">
+      <c r="Y27" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1"/>
+        <v>D</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1608,11 +1615,17 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>46</v>
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="H28">
         <f t="shared" si="8"/>
@@ -1624,7 +1637,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1640,7 +1653,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" si="12"/>
-        <v>02</v>
+        <v>EC</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1656,7 +1669,7 @@
       </c>
       <c r="S28" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>2E</v>
       </c>
       <c r="T28" s="1" t="str">
         <f t="shared" si="16"/>
@@ -1664,7 +1677,7 @@
       </c>
       <c r="U28" t="str">
         <f t="shared" si="4"/>
-        <v>nop</v>
+        <v>bne</v>
       </c>
       <c r="V28" s="1" t="str">
         <f t="shared" si="17"/>
@@ -1678,9 +1691,12 @@
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y28">
+      <c r="Y28" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>D</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -1689,11 +1705,20 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="G29">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <f t="shared" si="8"/>
@@ -1705,7 +1730,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1721,7 +1746,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" si="12"/>
-        <v>02</v>
+        <v>00</v>
       </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1745,25 +1770,30 @@
       </c>
       <c r="U29" t="str">
         <f t="shared" si="4"/>
-        <v>nop</v>
+        <v>ld</v>
       </c>
       <c r="V29" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W29">
+      <c r="W29" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>AC</v>
       </c>
       <c r="X29" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y29">
+      <c r="Y29" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1"/>
+        <v>D</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1774,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <f t="shared" si="7"/>
@@ -1788,15 +1818,15 @@
       </c>
       <c r="H30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1812,7 +1842,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" si="12"/>
-        <v>01</v>
+        <v>14</v>
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1828,7 +1858,7 @@
       </c>
       <c r="S30" t="str">
         <f t="shared" si="3"/>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="T30" s="1" t="str">
         <f t="shared" si="16"/>
@@ -1844,7 +1874,7 @@
       </c>
       <c r="W30" t="str">
         <f t="shared" si="5"/>
-        <v>[80,D]</v>
+        <v>y</v>
       </c>
       <c r="X30" s="1" t="str">
         <f t="shared" si="18"/>
@@ -1852,14 +1882,9 @@
       </c>
       <c r="Y30" t="str">
         <f t="shared" si="6"/>
-        <v>MEM</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD30" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>D</v>
+      </c>
+      <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1867,20 +1892,20 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <f t="shared" si="8"/>
@@ -1888,11 +1913,11 @@
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1908,7 +1933,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>01</v>
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="13"/>
@@ -1924,7 +1949,7 @@
       </c>
       <c r="S31" t="str">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>00</v>
       </c>
       <c r="T31" s="1" t="str">
         <f t="shared" si="16"/>
@@ -1932,7 +1957,7 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" si="4"/>
-        <v>xor</v>
+        <v>ld</v>
       </c>
       <c r="V31" s="1" t="str">
         <f t="shared" si="17"/>
@@ -1940,7 +1965,7 @@
       </c>
       <c r="W31" t="str">
         <f t="shared" si="5"/>
-        <v>AC</v>
+        <v>[80,D],AC</v>
       </c>
       <c r="X31" s="1" t="str">
         <f t="shared" si="18"/>
@@ -1948,10 +1973,13 @@
       </c>
       <c r="Y31" t="str">
         <f t="shared" si="6"/>
-        <v>D</v>
+        <v>MEM</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -1960,29 +1988,32 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="9"/>
@@ -1998,7 +2029,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" si="12"/>
-        <v>F0</v>
+        <v>15</v>
       </c>
       <c r="P32" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2013,8 +2044,8 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>DEC2HEX(E32,2)</f>
+        <v>01</v>
       </c>
       <c r="T32" s="1" t="str">
         <f t="shared" si="16"/>
@@ -2022,15 +2053,15 @@
       </c>
       <c r="U32" t="str">
         <f t="shared" si="4"/>
-        <v>beq</v>
+        <v>ld</v>
       </c>
       <c r="V32" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W32">
+      <c r="W32" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>[80,D],Y</v>
       </c>
       <c r="X32" s="1" t="str">
         <f t="shared" si="18"/>
@@ -2038,10 +2069,10 @@
       </c>
       <c r="Y32" t="str">
         <f t="shared" si="6"/>
-        <v>D</v>
+        <v>MEM</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
@@ -2050,20 +2081,11 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="H33">
         <f t="shared" si="8"/>
@@ -2071,11 +2093,11 @@
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2091,7 +2113,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" si="12"/>
-        <v>01</v>
+        <v>E3</v>
       </c>
       <c r="P33" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2107,7 +2129,7 @@
       </c>
       <c r="S33" t="str">
         <f t="shared" si="3"/>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="T33" s="1" t="str">
         <f t="shared" si="16"/>
@@ -2115,26 +2137,26 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" si="4"/>
-        <v>ld</v>
+        <v>reti</v>
       </c>
       <c r="V33" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W33" t="str">
+      <c r="W33">
         <f t="shared" si="5"/>
-        <v>[80,D]</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y33" t="str">
+      <c r="Y33">
         <f t="shared" si="6"/>
-        <v>MEM</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
@@ -2143,20 +2165,11 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="G34">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <f t="shared" si="8"/>
@@ -2168,7 +2181,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2184,7 +2197,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>02</v>
       </c>
       <c r="P34" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2200,7 +2213,7 @@
       </c>
       <c r="S34" t="str">
         <f t="shared" si="3"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="T34" s="1" t="str">
         <f t="shared" si="16"/>
@@ -2208,30 +2221,26 @@
       </c>
       <c r="U34" t="str">
         <f t="shared" si="4"/>
-        <v>xor</v>
+        <v>nop</v>
       </c>
       <c r="V34" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W34" t="str">
+      <c r="W34">
         <f t="shared" si="5"/>
-        <v>AC</v>
+        <v>0</v>
       </c>
       <c r="X34" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y34" t="str">
+      <c r="Y34">
         <f t="shared" si="6"/>
-        <v>D</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD34" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AD34" s="1"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -2239,17 +2248,11 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="G35">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <f t="shared" si="8"/>
@@ -2261,7 +2264,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2277,7 +2280,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" si="12"/>
-        <v>F0</v>
+        <v>02</v>
       </c>
       <c r="P35" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2292,8 +2295,8 @@
         <v>=&gt;x"</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="3"/>
-        <v>2E</v>
+        <f>DEC2HEX(E35,2)</f>
+        <v>00</v>
       </c>
       <c r="T35" s="1" t="str">
         <f t="shared" si="16"/>
@@ -2301,7 +2304,7 @@
       </c>
       <c r="U35" t="str">
         <f t="shared" si="4"/>
-        <v>beq</v>
+        <v>nop</v>
       </c>
       <c r="V35" s="1" t="str">
         <f t="shared" si="17"/>
@@ -2315,12 +2318,9 @@
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y35" t="str">
+      <c r="Y35">
         <f t="shared" si="6"/>
-        <v>D</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
@@ -2329,20 +2329,11 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="G36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <f t="shared" si="8"/>
@@ -2354,7 +2345,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2370,7 +2361,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
+        <v>02</v>
       </c>
       <c r="P36" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2386,7 +2377,7 @@
       </c>
       <c r="S36" t="str">
         <f t="shared" si="3"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="T36" s="1" t="str">
         <f t="shared" si="16"/>
@@ -2394,27 +2385,25 @@
       </c>
       <c r="U36" t="str">
         <f t="shared" si="4"/>
-        <v>ld</v>
+        <v>nop</v>
       </c>
       <c r="V36" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W36" t="str">
+      <c r="W36">
         <f t="shared" si="5"/>
-        <v>AC</v>
+        <v>0</v>
       </c>
       <c r="X36" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y36" t="str">
+      <c r="Y36">
         <f t="shared" si="6"/>
-        <v>D</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -2422,20 +2411,11 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="G37">
         <f t="shared" si="7"/>
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <f t="shared" si="8"/>
@@ -2443,11 +2423,11 @@
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2463,7 +2443,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" si="12"/>
-        <v>C2</v>
+        <v>02</v>
       </c>
       <c r="P37" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2479,7 +2459,7 @@
       </c>
       <c r="S37" t="str">
         <f t="shared" si="3"/>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="T37" s="1" t="str">
         <f t="shared" si="16"/>
@@ -2487,27 +2467,25 @@
       </c>
       <c r="U37" t="str">
         <f t="shared" si="4"/>
-        <v>st</v>
+        <v>nop</v>
       </c>
       <c r="V37" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W37" t="str">
+      <c r="W37">
         <f t="shared" si="5"/>
-        <v>[80,D]</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y37" t="str">
+      <c r="Y37">
         <f t="shared" si="6"/>
-        <v>AC</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2515,11 +2493,11 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="G38">
         <f t="shared" si="7"/>
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <f t="shared" si="8"/>
@@ -2531,7 +2509,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2547,7 +2525,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" si="12"/>
-        <v>E3</v>
+        <v>02</v>
       </c>
       <c r="P38" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2571,7 +2549,7 @@
       </c>
       <c r="U38" t="str">
         <f t="shared" si="4"/>
-        <v>reti</v>
+        <v>nop</v>
       </c>
       <c r="V38" s="1" t="str">
         <f t="shared" si="17"/>
@@ -2589,12 +2567,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD38" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="Z38" s="1"/>
+      <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -2602,20 +2576,11 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G39">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <f t="shared" si="8"/>
@@ -2627,7 +2592,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2643,7 +2608,7 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
+        <v>02</v>
       </c>
       <c r="P39" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2667,29 +2632,23 @@
       </c>
       <c r="U39" t="str">
         <f>B39</f>
-        <v>ld</v>
+        <v>nop</v>
       </c>
       <c r="V39" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W39" t="str">
+      <c r="W39">
         <f>C39</f>
-        <v>AC</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y39" t="str">
+      <c r="Y39">
         <f>D39</f>
-        <v>D</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD39" s="1" t="s">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
@@ -2698,7 +2657,7 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G40">
         <f t="shared" si="7"/>
@@ -2772,7 +2731,6 @@
         <f>D40</f>
         <v>0</v>
       </c>
-      <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -2780,24 +2738,15 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G41">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <f>_xlfn.XLOOKUP(D41,$H$3:$H$7,$I$3:$I$7)</f>
@@ -2805,7 +2754,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2821,7 +2770,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>02</v>
       </c>
       <c r="P41" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2845,23 +2794,23 @@
       </c>
       <c r="U41" t="str">
         <f>B41</f>
-        <v>ld</v>
+        <v>nop</v>
       </c>
       <c r="V41" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W41" t="str">
+      <c r="W41">
         <f>C41</f>
-        <v>Y</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y41" t="str">
+      <c r="Y41">
         <f>D41</f>
-        <v>D</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
@@ -2870,20 +2819,11 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <f t="shared" si="8"/>
@@ -2891,11 +2831,11 @@
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2911,7 +2851,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" si="12"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="P42" s="1" t="str">
         <f t="shared" si="13"/>
@@ -2935,29 +2875,23 @@
       </c>
       <c r="U42" t="str">
         <f t="shared" si="4"/>
-        <v>ld</v>
+        <v>nop</v>
       </c>
       <c r="V42" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W42" t="str">
+      <c r="W42">
         <f t="shared" si="5"/>
-        <v>[80,D],AC</v>
+        <v>0</v>
       </c>
       <c r="X42" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y42" t="str">
+      <c r="Y42">
         <f t="shared" si="6"/>
-        <v>MEM</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD42" s="1" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
@@ -2966,7 +2900,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G43">
         <f t="shared" si="7"/>
@@ -3040,7 +2974,6 @@
         <f>D43</f>
         <v>0</v>
       </c>
-      <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -3048,32 +2981,23 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="G44">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <f>_xlfn.XLOOKUP(D44,$H$3:$H$7,$I$3:$I$7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3089,7 +3013,7 @@
       </c>
       <c r="O44" t="str">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>02</v>
       </c>
       <c r="P44" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3105,7 +3029,7 @@
       </c>
       <c r="S44" t="str">
         <f>DEC2HEX(E44,2)</f>
-        <v>02</v>
+        <v>00</v>
       </c>
       <c r="T44" s="1" t="str">
         <f t="shared" si="16"/>
@@ -3113,26 +3037,23 @@
       </c>
       <c r="U44" t="str">
         <f>B44</f>
-        <v>ld</v>
+        <v>nop</v>
       </c>
       <c r="V44" s="1" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W44" t="str">
+      <c r="W44">
         <f>C44</f>
-        <v>[80,D],Y</v>
+        <v>0</v>
       </c>
       <c r="X44" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y44" t="str">
+      <c r="Y44">
         <f>D44</f>
-        <v>MEM</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
@@ -3141,11 +3062,11 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="G45">
         <f t="shared" si="7"/>
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <f t="shared" si="8"/>
@@ -3157,7 +3078,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="2"/>
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3173,7 +3094,7 @@
       </c>
       <c r="O45" t="str">
         <f t="shared" si="12"/>
-        <v>E3</v>
+        <v>02</v>
       </c>
       <c r="P45" s="1" t="str">
         <f t="shared" si="13"/>
@@ -3197,7 +3118,7 @@
       </c>
       <c r="U45" t="str">
         <f>B45</f>
-        <v>reti</v>
+        <v>nop</v>
       </c>
       <c r="V45" s="1" t="str">
         <f t="shared" si="17"/>
@@ -3214,9 +3135,6 @@
       <c r="Y45">
         <f>D45</f>
         <v>0</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
@@ -3310,7 +3228,7 @@
       </c>
       <c r="Z46" s="1"/>
       <c r="AD46" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
@@ -3322,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -3403,7 +3321,7 @@
         <v>AC</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
@@ -3496,10 +3414,10 @@
         <v>D</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
@@ -3511,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -3592,10 +3510,10 @@
         <v>AC</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
@@ -3607,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
@@ -3688,7 +3606,7 @@
         <v>MEM</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
@@ -3781,7 +3699,7 @@
         <v>D</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
@@ -3793,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -3871,7 +3789,7 @@
         <v>AC</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
@@ -3961,7 +3879,7 @@
         <v>D</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">

--- a/resources/Assembly.xlsx
+++ b/resources/Assembly.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\gtxl\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B45A2D1-A803-457B-8BA8-949FE421C09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8EBF04-B533-442D-84F3-CF1DF392156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-5625" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-5625" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="fibon" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="188">
   <si>
     <t>ld</t>
   </si>
@@ -420,6 +421,189 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>DEPTH</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>WIDTH</t>
+  </si>
+  <si>
+    <t>ADDRESS_RADIX</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>DATA_RADIX</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>",</t>
+  </si>
 </sst>
 </file>
 
@@ -454,9 +638,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23:AD53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14151,9 +14336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED5C3B6-8951-4E2A-B650-0DF7E3F63672}">
   <dimension ref="A2:Z106"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19205,4 +19388,1161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DB438F-FB46-4CB6-96BF-2772BB2DDFFB}">
+  <dimension ref="B1:X47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <f>HEX2DEC(C9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>D9</f>
+        <v>C2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" ref="F10:F46" si="0">F9</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G10">
+        <f>HEX2DEC(C10)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" ref="H10:H46" si="1">H9</f>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" ref="I10:I46" si="2">D10</f>
+        <v>00</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" ref="J10:J46" si="3">J9</f>
+        <v>",</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G46" si="4">HEX2DEC(C11)</f>
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C3</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>03</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>EC</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>E3</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>03</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1A</v>
+      </c>
+      <c r="J43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>FC</v>
+      </c>
+      <c r="J45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1C</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/Assembly.xlsx
+++ b/resources/Assembly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\gtxl\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8EBF04-B533-442D-84F3-CF1DF392156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A87A561-CCEF-4037-B485-8D003DB8CCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-5625" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="331">
   <si>
     <t>ld</t>
   </si>
@@ -603,6 +603,435 @@
   </si>
   <si>
     <t>",</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>6E</t>
+  </si>
+  <si>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>8E</t>
+  </si>
+  <si>
+    <t>8F</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>9D</t>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <t>9F</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>AD</t>
   </si>
 </sst>
 </file>
@@ -19392,10 +19821,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DB438F-FB46-4CB6-96BF-2772BB2DDFFB}">
-  <dimension ref="B1:X47"/>
+  <dimension ref="B1:X272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181:J182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19416,7 +19845,7 @@
         <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -19504,7 +19933,7 @@
         <v>157</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" ref="F10:F46" si="0">F9</f>
+        <f t="shared" ref="F10:F73" si="0">F9</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G10">
@@ -19512,7 +19941,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" ref="H10:H46" si="1">H9</f>
+        <f t="shared" ref="H10:H73" si="1">H9</f>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="I10" s="2" t="str">
@@ -19520,7 +19949,7 @@
         <v>00</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f t="shared" ref="J10:J46" si="3">J9</f>
+        <f t="shared" ref="J10:J73" si="3">J9</f>
         <v>",</v>
       </c>
       <c r="L10" s="1"/>
@@ -19590,7 +20019,7 @@
         <v>161</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19606,7 +20035,7 @@
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19618,7 +20047,7 @@
         <v>163</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19634,7 +20063,7 @@
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>03</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19646,7 +20075,7 @@
         <v>164</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19662,7 +20091,7 @@
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>01</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19674,7 +20103,7 @@
         <v>165</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19690,7 +20119,7 @@
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19702,7 +20131,7 @@
         <v>154</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19718,7 +20147,7 @@
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>EC</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19730,7 +20159,7 @@
         <v>168</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19746,7 +20175,7 @@
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19758,7 +20187,7 @@
         <v>138</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19774,7 +20203,7 @@
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>EC</v>
+        <v>FD</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19786,7 +20215,7 @@
         <v>140</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19802,7 +20231,7 @@
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>06</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19814,7 +20243,7 @@
         <v>141</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19830,7 +20259,7 @@
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19842,7 +20271,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19858,7 +20287,7 @@
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>05</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19870,7 +20299,7 @@
         <v>142</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19886,7 +20315,7 @@
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1D</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19926,7 +20355,7 @@
         <v>162</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19942,7 +20371,7 @@
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>01</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19954,7 +20383,7 @@
         <v>172</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19970,7 +20399,7 @@
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19982,7 +20411,7 @@
         <v>173</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19998,7 +20427,7 @@
       </c>
       <c r="I27" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>01</v>
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20010,7 +20439,7 @@
         <v>175</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20026,7 +20455,7 @@
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>01</v>
+        <v>05</v>
       </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20038,7 +20467,7 @@
         <v>171</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20054,7 +20483,7 @@
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>E3</v>
+        <v>80</v>
       </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20066,7 +20495,7 @@
         <v>174</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20082,7 +20511,7 @@
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20094,7 +20523,7 @@
         <v>170</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20110,7 +20539,7 @@
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>C2</v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20122,7 +20551,7 @@
         <v>176</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20138,19 +20567,19 @@
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>05</v>
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20166,19 +20595,19 @@
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C2</v>
+        <v>00</v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20194,19 +20623,19 @@
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
+        <v>78</v>
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20222,14 +20651,14 @@
       </c>
       <c r="I35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>63</v>
       </c>
       <c r="J35" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>146</v>
       </c>
@@ -20257,12 +20686,12 @@
         <v>",</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20278,19 +20707,19 @@
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C2</v>
+        <v>F0</v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20306,19 +20735,19 @@
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>04</v>
+        <v>64</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20334,19 +20763,19 @@
       </c>
       <c r="I39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20362,19 +20791,19 @@
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>04</v>
+        <v>00</v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20390,19 +20819,19 @@
       </c>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>02</v>
       </c>
       <c r="J41" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20418,19 +20847,19 @@
       </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="J42" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20446,14 +20875,14 @@
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1A</v>
+        <v>18</v>
       </c>
       <c r="J43" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>184</v>
       </c>
@@ -20481,12 +20910,12 @@
         <v>",</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20502,19 +20931,19 @@
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>FC</v>
+        <v>02</v>
       </c>
       <c r="J45" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -20530,17 +20959,4183 @@
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>1C</v>
+        <v>00</v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" si="3"/>
         <v>",</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G47">
+        <f t="shared" ref="G47:G110" si="5">HEX2DEC(C47)</f>
+        <v>38</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f t="shared" ref="I47:I110" si="6">D47</f>
+        <v>02</v>
+      </c>
+      <c r="J47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I48" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+      <c r="J49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+      <c r="J51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I52" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+      <c r="J55" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J56" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I57" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I58" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>F5</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I59" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>FD</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I60" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>07</v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I62" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="J62" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C2</v>
+      </c>
+      <c r="J63" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I64" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>07</v>
+      </c>
+      <c r="J64" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="J65" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I66" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J66" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I67" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J67" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I68" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="J68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="J69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I70" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="J70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I71" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>E3</v>
+      </c>
+      <c r="J71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I72" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J72" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I73" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f t="shared" ref="F74:F137" si="7">F73</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="H74" s="1" t="str">
+        <f t="shared" ref="H74:H137" si="8">H73</f>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I74" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>4C</v>
+      </c>
+      <c r="J74" s="1" t="str">
+        <f t="shared" ref="J74:J137" si="9">J73</f>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I75" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C2</v>
+      </c>
+      <c r="J75" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I76" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>07</v>
+      </c>
+      <c r="J76" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I77" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="J77" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I78" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J78" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I79" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J79" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I80" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="J80" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I81" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="J81" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F82" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I82" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="J82" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F83" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I83" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>E3</v>
+      </c>
+      <c r="J83" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I84" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J84" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F85" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I85" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J85" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F86" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I86" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="J86" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="H87" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I87" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C2</v>
+      </c>
+      <c r="J87" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F88" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="H88" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I88" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>07</v>
+      </c>
+      <c r="J88" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I89" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="J89" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I90" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J90" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I91" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J91" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F92" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I92" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="J92" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F93" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I93" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="J93" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I94" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="J94" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I95" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>E3</v>
+      </c>
+      <c r="J95" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I96" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J96" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I97" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J97" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I98" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="J98" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C99" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I99" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C2</v>
+      </c>
+      <c r="J99" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I100" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>07</v>
+      </c>
+      <c r="J100" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C101" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I101" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="J101" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="H102" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I102" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J102" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C103" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I103" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J103" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="H104" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I104" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="J104" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C105" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="H105" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I105" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="J105" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="H106" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I106" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="J106" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="H107" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I107" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>E3</v>
+      </c>
+      <c r="J107" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C108" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I108" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="J108" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C109" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I109" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>FD</v>
+      </c>
+      <c r="J109" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C110" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="H110" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I110" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>07</v>
+      </c>
+      <c r="J110" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C111" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G111">
+        <f t="shared" ref="G111:G116" si="10">HEX2DEC(C111)</f>
+        <v>102</v>
+      </c>
+      <c r="H111" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I111" s="2" t="str">
+        <f t="shared" ref="I111:I116" si="11">D111</f>
+        <v>10</v>
+      </c>
+      <c r="J111" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C112" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="H112" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I112" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="J112" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C113" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F113" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="H113" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I113" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="J113" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C114" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F114" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="H114" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I114" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>00</v>
+      </c>
+      <c r="J114" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C115" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F115" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="H115" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I115" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>01</v>
+      </c>
+      <c r="J115" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C116" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+      <c r="H116" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I116" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>08</v>
+      </c>
+      <c r="J116" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C117" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G117">
+        <f t="shared" ref="G117:G180" si="12">HEX2DEC(C117)</f>
+        <v>108</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I117" s="2" t="str">
+        <f t="shared" ref="I117:I180" si="13">D117</f>
+        <v>80</v>
+      </c>
+      <c r="J117" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C118" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F118" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="12"/>
+        <v>109</v>
+      </c>
+      <c r="H118" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I118" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="J118" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F119" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="12"/>
+        <v>110</v>
+      </c>
+      <c r="H119" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I119" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>C2</v>
+      </c>
+      <c r="J119" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C120" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F120" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="12"/>
+        <v>111</v>
+      </c>
+      <c r="H120" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I120" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+      <c r="J120" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C121" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F121" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="H121" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I121" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>02</v>
+      </c>
+      <c r="J121" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C122" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F122" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="12"/>
+        <v>113</v>
+      </c>
+      <c r="H122" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I122" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+      <c r="J122" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C123" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F123" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="12"/>
+        <v>114</v>
+      </c>
+      <c r="H123" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I123" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>02</v>
+      </c>
+      <c r="J123" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C124" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F124" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="12"/>
+        <v>115</v>
+      </c>
+      <c r="H124" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I124" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+      <c r="J124" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C125" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F125" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="12"/>
+        <v>116</v>
+      </c>
+      <c r="H125" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I125" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="J125" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C126" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F126" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="12"/>
+        <v>117</v>
+      </c>
+      <c r="H126" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I126" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>0C</v>
+      </c>
+      <c r="J126" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C127" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F127" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="12"/>
+        <v>118</v>
+      </c>
+      <c r="H127" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I127" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="J127" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C128" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F128" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="12"/>
+        <v>119</v>
+      </c>
+      <c r="H128" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I128" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="J128" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="129" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C129" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F129" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="H129" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I129" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>F0</v>
+      </c>
+      <c r="J129" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="130" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C130" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F130" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="12"/>
+        <v>121</v>
+      </c>
+      <c r="H130" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I130" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="J130" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C131" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F131" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="12"/>
+        <v>122</v>
+      </c>
+      <c r="H131" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I131" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="J131" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="132" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C132" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F132" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="12"/>
+        <v>123</v>
+      </c>
+      <c r="H132" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I132" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+      <c r="J132" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C133" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F133" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="12"/>
+        <v>124</v>
+      </c>
+      <c r="H133" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I133" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="J133" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C134" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F134" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="12"/>
+        <v>125</v>
+      </c>
+      <c r="H134" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I134" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>06</v>
+      </c>
+      <c r="J134" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C135" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F135" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="12"/>
+        <v>126</v>
+      </c>
+      <c r="H135" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I135" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>F0</v>
+      </c>
+      <c r="J135" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C136" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F136" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="12"/>
+        <v>127</v>
+      </c>
+      <c r="H136" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I136" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="J136" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C137" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F137" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="H137" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I137" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="J137" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C138" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F138" s="1" t="str">
+        <f t="shared" ref="F138:F182" si="14">F137</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="12"/>
+        <v>129</v>
+      </c>
+      <c r="H138" s="1" t="str">
+        <f t="shared" ref="H138:H182" si="15">H137</f>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I138" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+      <c r="J138" s="1" t="str">
+        <f t="shared" ref="J138:J182" si="16">J137</f>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C139" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F139" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="12"/>
+        <v>130</v>
+      </c>
+      <c r="H139" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I139" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="J139" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C140" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F140" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="12"/>
+        <v>131</v>
+      </c>
+      <c r="H140" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I140" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="J140" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C141" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F141" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="12"/>
+        <v>132</v>
+      </c>
+      <c r="H141" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I141" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>F0</v>
+      </c>
+      <c r="J141" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="142" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C142" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F142" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="12"/>
+        <v>133</v>
+      </c>
+      <c r="H142" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I142" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>88</v>
+      </c>
+      <c r="J142" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="143" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C143" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F143" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="12"/>
+        <v>134</v>
+      </c>
+      <c r="H143" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I143" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="J143" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C144" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F144" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="H144" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I144" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+      <c r="J144" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C145" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F145" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="12"/>
+        <v>136</v>
+      </c>
+      <c r="H145" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I145" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="J145" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C146" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F146" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="H146" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I146" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="J146" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C147" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F147" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="H147" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I147" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>C2</v>
+      </c>
+      <c r="J147" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C148" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F148" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="12"/>
+        <v>139</v>
+      </c>
+      <c r="H148" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I148" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+      <c r="J148" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="149" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C149" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F149" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="H149" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I149" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+      <c r="J149" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C150" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F150" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="12"/>
+        <v>141</v>
+      </c>
+      <c r="H150" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I150" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="J150" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C151" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F151" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="12"/>
+        <v>142</v>
+      </c>
+      <c r="H151" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I151" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>C2</v>
+      </c>
+      <c r="J151" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C152" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F152" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="12"/>
+        <v>143</v>
+      </c>
+      <c r="H152" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I152" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>07</v>
+      </c>
+      <c r="J152" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C153" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F153" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="12"/>
+        <v>144</v>
+      </c>
+      <c r="H153" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I153" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+      <c r="J153" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C154" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F154" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="H154" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I154" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="J154" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C155" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F155" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="12"/>
+        <v>146</v>
+      </c>
+      <c r="H155" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I155" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>C2</v>
+      </c>
+      <c r="J155" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C156" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F156" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="12"/>
+        <v>147</v>
+      </c>
+      <c r="H156" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I156" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>03</v>
+      </c>
+      <c r="J156" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C157" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F157" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="12"/>
+        <v>148</v>
+      </c>
+      <c r="H157" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I157" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+      <c r="J157" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C158" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F158" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="12"/>
+        <v>149</v>
+      </c>
+      <c r="H158" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I158" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>0C</v>
+      </c>
+      <c r="J158" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C159" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F159" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="H159" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I159" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>C2</v>
+      </c>
+      <c r="J159" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C160" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F160" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="H160" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I160" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>06</v>
+      </c>
+      <c r="J160" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="161" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C161" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F161" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="12"/>
         <v>152</v>
       </c>
+      <c r="H161" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I161" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>62</v>
+      </c>
+      <c r="J161" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="162" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C162" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F162" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="12"/>
+        <v>153</v>
+      </c>
+      <c r="H162" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I162" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+      <c r="J162" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="163" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C163" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F163" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="12"/>
+        <v>154</v>
+      </c>
+      <c r="H163" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I163" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>C2</v>
+      </c>
+      <c r="J163" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="164" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C164" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F164" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="12"/>
+        <v>155</v>
+      </c>
+      <c r="H164" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I164" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>05</v>
+      </c>
+      <c r="J164" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="165" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C165" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F165" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="12"/>
+        <v>156</v>
+      </c>
+      <c r="H165" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I165" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>C2</v>
+      </c>
+      <c r="J165" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="166" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C166" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F166" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="12"/>
+        <v>157</v>
+      </c>
+      <c r="H166" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I166" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+      <c r="J166" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="167" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C167" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F167" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="12"/>
+        <v>158</v>
+      </c>
+      <c r="H167" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I167" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>C2</v>
+      </c>
+      <c r="J167" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="168" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C168" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F168" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="12"/>
+        <v>159</v>
+      </c>
+      <c r="H168" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I168" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>09</v>
+      </c>
+      <c r="J168" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="169" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C169" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F169" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="12"/>
+        <v>160</v>
+      </c>
+      <c r="H169" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I169" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+      <c r="J169" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="170" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C170" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F170" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="12"/>
+        <v>161</v>
+      </c>
+      <c r="H170" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I170" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+      <c r="J170" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="171" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C171" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F171" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="12"/>
+        <v>162</v>
+      </c>
+      <c r="H171" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I171" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="J171" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="172" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C172" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F172" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="12"/>
+        <v>163</v>
+      </c>
+      <c r="H172" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I172" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="J172" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="173" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C173" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F173" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="12"/>
+        <v>164</v>
+      </c>
+      <c r="H173" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I173" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>C2</v>
+      </c>
+      <c r="J173" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="174" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C174" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F174" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="12"/>
+        <v>165</v>
+      </c>
+      <c r="H174" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I174" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>04</v>
+      </c>
+      <c r="J174" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="175" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C175" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F175" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="12"/>
+        <v>166</v>
+      </c>
+      <c r="H175" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I175" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="J175" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="176" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C176" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F176" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="12"/>
+        <v>167</v>
+      </c>
+      <c r="H176" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I176" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>04</v>
+      </c>
+      <c r="J176" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C177" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F177" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="12"/>
+        <v>168</v>
+      </c>
+      <c r="H177" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I177" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="J177" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C178" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F178" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="12"/>
+        <v>169</v>
+      </c>
+      <c r="H178" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I178" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>01</v>
+      </c>
+      <c r="J178" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C179" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F179" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="12"/>
+        <v>170</v>
+      </c>
+      <c r="H179" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I179" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>CA</v>
+      </c>
+      <c r="J179" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C180" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F180" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="12"/>
+        <v>171</v>
+      </c>
+      <c r="H180" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I180" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+      <c r="J180" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F181" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G181">
+        <f t="shared" ref="G181:G182" si="17">HEX2DEC(C181)</f>
+        <v>172</v>
+      </c>
+      <c r="H181" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I181" s="2" t="str">
+        <f t="shared" ref="I181:I182" si="18">D181</f>
+        <v>FC</v>
+      </c>
+      <c r="J181" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C182" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F182" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="17"/>
+        <v>173</v>
+      </c>
+      <c r="H182" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I182" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>A4</v>
+      </c>
+      <c r="J182" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>152</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+    </row>
+    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+    </row>
+    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+    </row>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+    </row>
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+    </row>
+    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+    </row>
+    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+    </row>
+    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+    </row>
+    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+    </row>
+    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+    </row>
+    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+    </row>
+    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+    </row>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+    </row>
+    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Assembly.xlsx
+++ b/resources/Assembly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\gtxl\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2676785D-8BA1-453F-B196-15CC73E46800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B88321-6935-4B56-929A-F85506B8EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68550" yWindow="-3120" windowWidth="34230" windowHeight="18135" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="774">
   <si>
     <t>ld</t>
   </si>
@@ -2306,9 +2306,6 @@
     <t>25D</t>
   </si>
   <si>
-    <t>610</t>
-  </si>
-  <si>
     <t>25E</t>
   </si>
   <si>
@@ -2319,6 +2316,51 @@
   </si>
   <si>
     <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>26A</t>
+  </si>
+  <si>
+    <t>26B</t>
+  </si>
+  <si>
+    <t>26C</t>
+  </si>
+  <si>
+    <t>26D</t>
+  </si>
+  <si>
+    <t>26E</t>
+  </si>
+  <si>
+    <t>26F</t>
   </si>
 </sst>
 </file>
@@ -21108,10 +21150,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DB438F-FB46-4CB6-96BF-2772BB2DDFFB}">
-  <dimension ref="B1:X619"/>
+  <dimension ref="B1:X633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J618" sqref="F9:J618"/>
+    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:J632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21132,7 +21174,7 @@
         <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -21502,7 +21544,7 @@
         <v>140</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -21518,7 +21560,7 @@
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>B0</v>
+        <v>BE</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="3"/>
@@ -21614,7 +21656,7 @@
         <v>143</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -21630,7 +21672,7 @@
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>A2</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="3"/>
@@ -21754,7 +21796,7 @@
         <v>171</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -21770,7 +21812,7 @@
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="3"/>
@@ -21782,7 +21824,7 @@
         <v>174</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -21798,7 +21840,7 @@
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>01</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="3"/>
@@ -21810,7 +21852,7 @@
         <v>170</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -21826,7 +21868,7 @@
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>C2</v>
+        <v>F0</v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="3"/>
@@ -21838,7 +21880,7 @@
         <v>176</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -21854,7 +21896,7 @@
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>08</v>
+        <v>1A</v>
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="3"/>
@@ -21866,7 +21908,7 @@
         <v>177</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -21882,7 +21924,7 @@
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="3"/>
@@ -21894,7 +21936,7 @@
         <v>178</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -21910,7 +21952,7 @@
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>08</v>
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" si="3"/>
@@ -21922,7 +21964,7 @@
         <v>145</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -21938,7 +21980,7 @@
       </c>
       <c r="I35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>02</v>
+        <v>80</v>
       </c>
       <c r="J35" s="1" t="str">
         <f t="shared" si="3"/>
@@ -21950,7 +21992,7 @@
         <v>146</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -21966,7 +22008,7 @@
       </c>
       <c r="I36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="J36" s="1" t="str">
         <f t="shared" si="3"/>
@@ -21978,7 +22020,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -21994,7 +22036,7 @@
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>02</v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22006,7 +22048,7 @@
         <v>148</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22022,7 +22064,7 @@
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0C</v>
+        <v>00</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22090,7 +22132,7 @@
         <v>180</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22106,7 +22148,7 @@
       </c>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>F0</v>
+        <v>C2</v>
       </c>
       <c r="J41" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22118,7 +22160,7 @@
         <v>182</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22134,7 +22176,7 @@
       </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>3E</v>
+        <v>08</v>
       </c>
       <c r="J42" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22146,7 +22188,7 @@
         <v>183</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22162,7 +22204,7 @@
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>01</v>
+        <v>60</v>
       </c>
       <c r="J43" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22174,7 +22216,7 @@
         <v>184</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22190,7 +22232,7 @@
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>08</v>
+        <v>0C</v>
       </c>
       <c r="J44" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22202,7 +22244,7 @@
         <v>185</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22218,7 +22260,7 @@
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>F0</v>
       </c>
       <c r="J45" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22230,7 +22272,7 @@
         <v>186</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22246,7 +22288,7 @@
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>06</v>
+        <v>36</v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22258,7 +22300,7 @@
         <v>198</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22274,7 +22316,7 @@
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" ref="I47:I110" si="6">D47</f>
-        <v>F0</v>
+        <v>01</v>
       </c>
       <c r="J47" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22286,7 +22328,7 @@
         <v>199</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22302,7 +22344,7 @@
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>48</v>
+        <v>08</v>
       </c>
       <c r="J48" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22314,7 +22356,7 @@
         <v>201</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22330,7 +22372,7 @@
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>01</v>
+        <v>60</v>
       </c>
       <c r="J49" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22342,7 +22384,7 @@
         <v>202</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22358,7 +22400,7 @@
       </c>
       <c r="I50" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>08</v>
+        <v>06</v>
       </c>
       <c r="J50" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22370,7 +22412,7 @@
         <v>203</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22386,7 +22428,7 @@
       </c>
       <c r="I51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>F0</v>
       </c>
       <c r="J51" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22398,7 +22440,7 @@
         <v>204</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22414,7 +22456,7 @@
       </c>
       <c r="I52" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J52" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22426,7 +22468,7 @@
         <v>205</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22442,7 +22484,7 @@
       </c>
       <c r="I53" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>F0</v>
+        <v>00</v>
       </c>
       <c r="J53" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22454,7 +22496,7 @@
         <v>206</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>196</v>
+        <v>333</v>
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22470,7 +22512,7 @@
       </c>
       <c r="I54" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>0E</v>
       </c>
       <c r="J54" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22482,7 +22524,7 @@
         <v>207</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22498,7 +22540,7 @@
       </c>
       <c r="I55" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>01</v>
+        <v>C2</v>
       </c>
       <c r="J55" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22510,7 +22552,7 @@
         <v>208</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22526,7 +22568,7 @@
       </c>
       <c r="I56" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>08</v>
+        <v>06</v>
       </c>
       <c r="J56" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22538,7 +22580,7 @@
         <v>196</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22554,7 +22596,7 @@
       </c>
       <c r="I57" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>01</v>
       </c>
       <c r="J57" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22566,7 +22608,7 @@
         <v>209</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22582,7 +22624,7 @@
       </c>
       <c r="I58" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="J58" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22594,7 +22636,7 @@
         <v>210</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="F59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22610,7 +22652,7 @@
       </c>
       <c r="I59" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>C2</v>
+        <v>15</v>
       </c>
       <c r="J59" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22622,7 +22664,7 @@
         <v>211</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22638,7 +22680,7 @@
       </c>
       <c r="I60" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>08</v>
+        <v>01</v>
       </c>
       <c r="J60" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22650,7 +22692,7 @@
         <v>213</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22666,7 +22708,7 @@
       </c>
       <c r="I61" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>E3</v>
       </c>
       <c r="J61" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22678,7 +22720,7 @@
         <v>214</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22694,7 +22736,7 @@
       </c>
       <c r="I62" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>0E</v>
+        <v>00</v>
       </c>
       <c r="J62" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22706,7 +22748,7 @@
         <v>215</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22722,7 +22764,7 @@
       </c>
       <c r="I63" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>C2</v>
+        <v>00</v>
       </c>
       <c r="J63" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22734,7 +22776,7 @@
         <v>169</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="F64" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22750,7 +22792,7 @@
       </c>
       <c r="I64" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>06</v>
+        <v>8A</v>
       </c>
       <c r="J64" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22762,7 +22804,7 @@
         <v>153</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F65" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22778,7 +22820,7 @@
       </c>
       <c r="I65" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>01</v>
+        <v>C2</v>
       </c>
       <c r="J65" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22790,7 +22832,7 @@
         <v>217</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="F66" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22806,7 +22848,7 @@
       </c>
       <c r="I66" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>06</v>
       </c>
       <c r="J66" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22818,7 +22860,7 @@
         <v>218</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F67" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22834,7 +22876,7 @@
       </c>
       <c r="I67" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>01</v>
       </c>
       <c r="J67" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22846,7 +22888,7 @@
         <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22862,7 +22904,7 @@
       </c>
       <c r="I68" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="J68" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22874,7 +22916,7 @@
         <v>220</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="F69" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22890,7 +22932,7 @@
       </c>
       <c r="I69" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>E3</v>
+        <v>15</v>
       </c>
       <c r="J69" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22902,7 +22944,7 @@
         <v>222</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F70" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22918,7 +22960,7 @@
       </c>
       <c r="I70" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="J70" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22930,7 +22972,7 @@
         <v>223</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F71" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22946,7 +22988,7 @@
       </c>
       <c r="I71" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>E3</v>
       </c>
       <c r="J71" s="1" t="str">
         <f t="shared" si="3"/>
@@ -22958,7 +23000,7 @@
         <v>224</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>283</v>
+        <v>157</v>
       </c>
       <c r="F72" s="1" t="str">
         <f t="shared" si="0"/>
@@ -22974,7 +23016,7 @@
       </c>
       <c r="I72" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>7E</v>
+        <v>00</v>
       </c>
       <c r="J72" s="1" t="str">
         <f t="shared" si="3"/>
@@ -23014,7 +23056,7 @@
         <v>225</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>190</v>
+        <v>327</v>
       </c>
       <c r="F74" s="1" t="str">
         <f t="shared" ref="F74:F137" si="7">F73</f>
@@ -23030,7 +23072,7 @@
       </c>
       <c r="I74" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>06</v>
+        <v>09</v>
       </c>
       <c r="J74" s="1" t="str">
         <f t="shared" ref="J74:J137" si="9">J73</f>
@@ -23042,7 +23084,7 @@
         <v>227</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F75" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23058,7 +23100,7 @@
       </c>
       <c r="I75" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="J75" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23070,7 +23112,7 @@
         <v>228</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="F76" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23086,7 +23128,7 @@
       </c>
       <c r="I76" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>4C</v>
       </c>
       <c r="J76" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23098,7 +23140,7 @@
         <v>229</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="F77" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23114,7 +23156,7 @@
       </c>
       <c r="I77" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>C2</v>
       </c>
       <c r="J77" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23126,7 +23168,7 @@
         <v>230</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F78" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23142,7 +23184,7 @@
       </c>
       <c r="I78" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>01</v>
+        <v>06</v>
       </c>
       <c r="J78" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23154,7 +23196,7 @@
         <v>212</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="F79" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23170,7 +23212,7 @@
       </c>
       <c r="I79" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>E3</v>
+        <v>01</v>
       </c>
       <c r="J79" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23210,7 +23252,7 @@
         <v>232</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="F81" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23226,7 +23268,7 @@
       </c>
       <c r="I81" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>C2</v>
+        <v>15</v>
       </c>
       <c r="J81" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23238,7 +23280,7 @@
         <v>233</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="F82" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23254,7 +23296,7 @@
       </c>
       <c r="I82" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>09</v>
+        <v>01</v>
       </c>
       <c r="J82" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23266,7 +23308,7 @@
         <v>234</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F83" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23282,7 +23324,7 @@
       </c>
       <c r="I83" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>E3</v>
       </c>
       <c r="J83" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23294,7 +23336,7 @@
         <v>235</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="F84" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23310,7 +23352,7 @@
       </c>
       <c r="I84" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>00</v>
       </c>
       <c r="J84" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23322,7 +23364,7 @@
         <v>236</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F85" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23338,7 +23380,7 @@
       </c>
       <c r="I85" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>C2</v>
+        <v>10</v>
       </c>
       <c r="J85" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23350,7 +23392,7 @@
         <v>237</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="F86" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23366,7 +23408,7 @@
       </c>
       <c r="I86" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>06</v>
+        <v>A2</v>
       </c>
       <c r="J86" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23378,7 +23420,7 @@
         <v>238</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F87" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23394,7 +23436,7 @@
       </c>
       <c r="I87" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>01</v>
+        <v>18</v>
       </c>
       <c r="J87" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23434,7 +23476,7 @@
         <v>240</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F89" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23450,7 +23492,7 @@
       </c>
       <c r="I89" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>00</v>
       </c>
       <c r="J89" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23462,7 +23504,7 @@
         <v>241</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="F90" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23478,7 +23520,7 @@
       </c>
       <c r="I90" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>01</v>
+        <v>5A</v>
       </c>
       <c r="J90" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23490,7 +23532,7 @@
         <v>243</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F91" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23506,7 +23548,7 @@
       </c>
       <c r="I91" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>E3</v>
+        <v>C2</v>
       </c>
       <c r="J91" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23518,7 +23560,7 @@
         <v>244</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="F92" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23534,7 +23576,7 @@
       </c>
       <c r="I92" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>06</v>
       </c>
       <c r="J92" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23546,7 +23588,7 @@
         <v>242</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F93" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23562,7 +23604,7 @@
       </c>
       <c r="I93" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="J93" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23574,7 +23616,7 @@
         <v>245</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="F94" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23590,7 +23632,7 @@
       </c>
       <c r="I94" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>00</v>
       </c>
       <c r="J94" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23602,7 +23644,7 @@
         <v>246</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F95" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23618,7 +23660,7 @@
       </c>
       <c r="I95" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J95" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23630,7 +23672,7 @@
         <v>247</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F96" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23646,7 +23688,7 @@
       </c>
       <c r="I96" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="J96" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23658,7 +23700,7 @@
         <v>248</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F97" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23674,7 +23716,7 @@
       </c>
       <c r="I97" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>E3</v>
       </c>
       <c r="J97" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23686,7 +23728,7 @@
         <v>249</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="F98" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23702,7 +23744,7 @@
       </c>
       <c r="I98" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>62</v>
+        <v>00</v>
       </c>
       <c r="J98" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23714,7 +23756,7 @@
         <v>250</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F99" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23730,7 +23772,7 @@
       </c>
       <c r="I99" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>C2</v>
+        <v>10</v>
       </c>
       <c r="J99" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23742,7 +23784,7 @@
         <v>251</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="F100" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23758,7 +23800,7 @@
       </c>
       <c r="I100" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>06</v>
+        <v>A2</v>
       </c>
       <c r="J100" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23770,7 +23812,7 @@
         <v>188</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F101" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23786,7 +23828,7 @@
       </c>
       <c r="I101" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>01</v>
+        <v>18</v>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23798,7 +23840,7 @@
         <v>252</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="F102" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23814,7 +23856,7 @@
       </c>
       <c r="I102" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>40</v>
       </c>
       <c r="J102" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23826,7 +23868,7 @@
         <v>253</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F103" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23842,7 +23884,7 @@
       </c>
       <c r="I103" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>01</v>
       </c>
       <c r="J103" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23854,7 +23896,7 @@
         <v>254</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="F104" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23870,7 +23912,7 @@
       </c>
       <c r="I104" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>01</v>
+        <v>09</v>
       </c>
       <c r="J104" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23882,7 +23924,7 @@
         <v>167</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="F105" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23898,7 +23940,7 @@
       </c>
       <c r="I105" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>E3</v>
+        <v>80</v>
       </c>
       <c r="J105" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23910,7 +23952,7 @@
         <v>255</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F106" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23926,7 +23968,7 @@
       </c>
       <c r="I106" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="J106" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23938,7 +23980,7 @@
         <v>256</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="F107" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23954,7 +23996,7 @@
       </c>
       <c r="I107" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>C2</v>
       </c>
       <c r="J107" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23966,7 +24008,7 @@
         <v>194</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="F108" s="1" t="str">
         <f t="shared" si="7"/>
@@ -23982,7 +24024,7 @@
       </c>
       <c r="I108" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>09</v>
       </c>
       <c r="J108" s="1" t="str">
         <f t="shared" si="9"/>
@@ -23994,7 +24036,7 @@
         <v>257</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F109" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24010,7 +24052,7 @@
       </c>
       <c r="I109" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J109" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24022,7 +24064,7 @@
         <v>258</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F110" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24038,7 +24080,7 @@
       </c>
       <c r="I110" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>06</v>
       </c>
       <c r="J110" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24050,7 +24092,7 @@
         <v>259</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="F111" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24066,7 +24108,7 @@
       </c>
       <c r="I111" s="2" t="str">
         <f t="shared" ref="I111:I116" si="11">D111</f>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="J111" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24078,7 +24120,7 @@
         <v>260</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>327</v>
+        <v>157</v>
       </c>
       <c r="F112" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24094,7 +24136,7 @@
       </c>
       <c r="I112" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>09</v>
+        <v>00</v>
       </c>
       <c r="J112" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24106,7 +24148,7 @@
         <v>261</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="F113" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24122,7 +24164,7 @@
       </c>
       <c r="I113" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>02</v>
       </c>
       <c r="J113" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24134,7 +24176,7 @@
         <v>262</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F114" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24150,7 +24192,7 @@
       </c>
       <c r="I114" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="J114" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24162,7 +24204,7 @@
         <v>263</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="F115" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24178,7 +24220,7 @@
       </c>
       <c r="I115" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>C2</v>
+        <v>02</v>
       </c>
       <c r="J115" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24190,7 +24232,7 @@
         <v>264</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>327</v>
+        <v>157</v>
       </c>
       <c r="F116" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24206,7 +24248,7 @@
       </c>
       <c r="I116" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>09</v>
+        <v>00</v>
       </c>
       <c r="J116" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24218,7 +24260,7 @@
         <v>267</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="F117" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24234,7 +24276,7 @@
       </c>
       <c r="I117" s="2" t="str">
         <f t="shared" ref="I117:I180" si="13">D117</f>
-        <v>60</v>
+        <v>02</v>
       </c>
       <c r="J117" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24246,7 +24288,7 @@
         <v>268</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="F118" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24262,7 +24304,7 @@
       </c>
       <c r="I118" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>06</v>
+        <v>00</v>
       </c>
       <c r="J118" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24274,7 +24316,7 @@
         <v>269</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="F119" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24290,7 +24332,7 @@
       </c>
       <c r="I119" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>18</v>
+        <v>02</v>
       </c>
       <c r="J119" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24330,7 +24372,7 @@
         <v>266</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F121" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24346,7 +24388,7 @@
       </c>
       <c r="I121" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>F0</v>
+        <v>02</v>
       </c>
       <c r="J121" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24358,7 +24400,7 @@
         <v>271</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="F122" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24374,7 +24416,7 @@
       </c>
       <c r="I122" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>78</v>
+        <v>00</v>
       </c>
       <c r="J122" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24386,7 +24428,7 @@
         <v>272</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="F123" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24402,7 +24444,7 @@
       </c>
       <c r="I123" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="J123" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24442,7 +24484,7 @@
         <v>274</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="F125" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24458,7 +24500,7 @@
       </c>
       <c r="I125" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>02</v>
       </c>
       <c r="J125" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24470,7 +24512,7 @@
         <v>275</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F126" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24486,7 +24528,7 @@
       </c>
       <c r="I126" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="J126" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24498,7 +24540,7 @@
         <v>277</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="F127" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24514,7 +24556,7 @@
       </c>
       <c r="I127" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>E3</v>
+        <v>02</v>
       </c>
       <c r="J127" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24554,7 +24596,7 @@
         <v>265</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="F129" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24570,7 +24612,7 @@
       </c>
       <c r="I129" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>02</v>
       </c>
       <c r="J129" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24582,7 +24624,7 @@
         <v>193</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="F130" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24598,7 +24640,7 @@
       </c>
       <c r="I130" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>0E</v>
+        <v>00</v>
       </c>
       <c r="J130" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24610,7 +24652,7 @@
         <v>279</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="F131" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24626,7 +24668,7 @@
       </c>
       <c r="I131" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>C2</v>
+        <v>18</v>
       </c>
       <c r="J131" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24638,7 +24680,7 @@
         <v>280</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="F132" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24654,7 +24696,7 @@
       </c>
       <c r="I132" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>06</v>
+        <v>00</v>
       </c>
       <c r="J132" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24666,7 +24708,7 @@
         <v>281</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="F133" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24682,7 +24724,7 @@
       </c>
       <c r="I133" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>FC</v>
+        <v>F0</v>
       </c>
       <c r="J133" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24694,7 +24736,7 @@
         <v>282</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="F134" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24710,7 +24752,7 @@
       </c>
       <c r="I134" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>0E</v>
+        <v>84</v>
       </c>
       <c r="J134" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24722,7 +24764,7 @@
         <v>283</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F135" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24738,7 +24780,7 @@
       </c>
       <c r="I135" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="J135" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24750,7 +24792,7 @@
         <v>284</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="F136" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24766,7 +24808,7 @@
       </c>
       <c r="I136" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>46</v>
+        <v>00</v>
       </c>
       <c r="J136" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24778,7 +24820,7 @@
         <v>181</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F137" s="1" t="str">
         <f t="shared" si="7"/>
@@ -24794,7 +24836,7 @@
       </c>
       <c r="I137" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="str">
         <f t="shared" si="9"/>
@@ -24806,7 +24848,7 @@
         <v>285</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F138" s="1" t="str">
         <f t="shared" ref="F138:F201" si="14">F137</f>
@@ -24822,7 +24864,7 @@
       </c>
       <c r="I138" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="J138" s="1" t="str">
         <f t="shared" ref="J138:J201" si="16">J137</f>
@@ -24834,7 +24876,7 @@
         <v>286</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F139" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24850,7 +24892,7 @@
       </c>
       <c r="I139" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>01</v>
+        <v>E3</v>
       </c>
       <c r="J139" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24862,7 +24904,7 @@
         <v>287</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="F140" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24878,7 +24920,7 @@
       </c>
       <c r="I140" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>08</v>
+        <v>00</v>
       </c>
       <c r="J140" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24890,7 +24932,7 @@
         <v>288</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F141" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24906,7 +24948,7 @@
       </c>
       <c r="I141" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>00</v>
       </c>
       <c r="J141" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24918,7 +24960,7 @@
         <v>289</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>160</v>
+        <v>333</v>
       </c>
       <c r="F142" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24934,7 +24976,7 @@
       </c>
       <c r="I142" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>01</v>
+        <v>0E</v>
       </c>
       <c r="J142" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24974,7 +25016,7 @@
         <v>291</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="F144" s="1" t="str">
         <f t="shared" si="14"/>
@@ -24990,7 +25032,7 @@
       </c>
       <c r="I144" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>08</v>
+        <v>06</v>
       </c>
       <c r="J144" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25002,7 +25044,7 @@
         <v>292</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F145" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25018,7 +25060,7 @@
       </c>
       <c r="I145" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>FC</v>
       </c>
       <c r="J145" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25030,7 +25072,7 @@
         <v>293</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>170</v>
+        <v>333</v>
       </c>
       <c r="F146" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25046,7 +25088,7 @@
       </c>
       <c r="I146" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>0E</v>
       </c>
       <c r="J146" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25058,7 +25100,7 @@
         <v>294</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F147" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25074,7 +25116,7 @@
       </c>
       <c r="I147" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="J147" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25086,7 +25128,7 @@
         <v>295</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="F148" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25102,7 +25144,7 @@
       </c>
       <c r="I148" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>7E</v>
+        <v>3C</v>
       </c>
       <c r="J148" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25114,7 +25156,7 @@
         <v>296</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="F149" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25130,7 +25172,7 @@
       </c>
       <c r="I149" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>C2</v>
+        <v>18</v>
       </c>
       <c r="J149" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25142,7 +25184,7 @@
         <v>297</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="F150" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25158,7 +25200,7 @@
       </c>
       <c r="I150" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>06</v>
+        <v>00</v>
       </c>
       <c r="J150" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25170,7 +25212,7 @@
         <v>298</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="F151" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25186,7 +25228,7 @@
       </c>
       <c r="I151" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>00</v>
       </c>
       <c r="J151" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25198,7 +25240,7 @@
         <v>299</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="F152" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25214,7 +25256,7 @@
       </c>
       <c r="I152" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>8A</v>
       </c>
       <c r="J152" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25226,7 +25268,7 @@
         <v>300</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="F153" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25242,7 +25284,7 @@
       </c>
       <c r="I153" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>C2</v>
       </c>
       <c r="J153" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25254,7 +25296,7 @@
         <v>301</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="F154" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25270,7 +25312,7 @@
       </c>
       <c r="I154" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>06</v>
       </c>
       <c r="J154" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25282,7 +25324,7 @@
         <v>302</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="F155" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25298,7 +25340,7 @@
       </c>
       <c r="I155" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="J155" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25310,7 +25352,7 @@
         <v>303</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="F156" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25326,7 +25368,7 @@
       </c>
       <c r="I156" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>08</v>
       </c>
       <c r="J156" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25338,7 +25380,7 @@
         <v>304</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="F157" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25354,7 +25396,7 @@
       </c>
       <c r="I157" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>80</v>
       </c>
       <c r="J157" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25366,7 +25408,7 @@
         <v>305</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F158" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25382,7 +25424,7 @@
       </c>
       <c r="I158" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="J158" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25394,7 +25436,7 @@
         <v>306</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="F159" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25410,7 +25452,7 @@
       </c>
       <c r="I159" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>C2</v>
       </c>
       <c r="J159" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25422,7 +25464,7 @@
         <v>307</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="F160" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25438,7 +25480,7 @@
       </c>
       <c r="I160" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>08</v>
       </c>
       <c r="J160" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25450,7 +25492,7 @@
         <v>276</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="F161" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25466,7 +25508,7 @@
       </c>
       <c r="I161" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>60</v>
       </c>
       <c r="J161" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25478,7 +25520,7 @@
         <v>308</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="F162" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25494,7 +25536,7 @@
       </c>
       <c r="I162" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>18</v>
       </c>
       <c r="J162" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25618,7 +25660,7 @@
         <v>313</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="F167" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25634,7 +25676,7 @@
       </c>
       <c r="I167" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>18</v>
+        <v>02</v>
       </c>
       <c r="J167" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25646,7 +25688,7 @@
         <v>314</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="F168" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25662,7 +25704,7 @@
       </c>
       <c r="I168" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>40</v>
+        <v>00</v>
       </c>
       <c r="J168" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25674,7 +25716,7 @@
         <v>315</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="F169" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25690,7 +25732,7 @@
       </c>
       <c r="I169" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>EC</v>
+        <v>02</v>
       </c>
       <c r="J169" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25702,7 +25744,7 @@
         <v>316</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>325</v>
+        <v>157</v>
       </c>
       <c r="F170" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25718,7 +25760,7 @@
       </c>
       <c r="I170" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>AA</v>
+        <v>00</v>
       </c>
       <c r="J170" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25730,7 +25772,7 @@
         <v>317</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="F171" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25746,7 +25788,7 @@
       </c>
       <c r="I171" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>02</v>
       </c>
       <c r="J171" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25758,7 +25800,7 @@
         <v>318</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="F172" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25774,7 +25816,7 @@
       </c>
       <c r="I172" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>00</v>
       </c>
       <c r="J172" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25786,7 +25828,7 @@
         <v>319</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="F173" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25802,7 +25844,7 @@
       </c>
       <c r="I173" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>C2</v>
+        <v>02</v>
       </c>
       <c r="J173" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25814,7 +25856,7 @@
         <v>320</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F174" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25830,7 +25872,7 @@
       </c>
       <c r="I174" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>00</v>
       </c>
       <c r="J174" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25842,7 +25884,7 @@
         <v>321</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="F175" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25858,7 +25900,7 @@
       </c>
       <c r="I175" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>02</v>
       </c>
       <c r="J175" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25870,7 +25912,7 @@
         <v>322</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>370</v>
+        <v>157</v>
       </c>
       <c r="F176" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25886,7 +25928,7 @@
       </c>
       <c r="I176" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>D4</v>
+        <v>00</v>
       </c>
       <c r="J176" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25898,7 +25940,7 @@
         <v>323</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="F177" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25914,7 +25956,7 @@
       </c>
       <c r="I177" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>C2</v>
+        <v>02</v>
       </c>
       <c r="J177" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25926,7 +25968,7 @@
         <v>324</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="F178" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25942,7 +25984,7 @@
       </c>
       <c r="I178" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>06</v>
+        <v>00</v>
       </c>
       <c r="J178" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25954,7 +25996,7 @@
         <v>325</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F179" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25970,7 +26012,7 @@
       </c>
       <c r="I179" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>01</v>
+        <v>18</v>
       </c>
       <c r="J179" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25982,7 +26024,7 @@
         <v>326</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="F180" s="1" t="str">
         <f t="shared" si="14"/>
@@ -25998,7 +26040,7 @@
       </c>
       <c r="I180" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>00</v>
+        <v>40</v>
       </c>
       <c r="J180" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26010,7 +26052,7 @@
         <v>19</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="F181" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26026,7 +26068,7 @@
       </c>
       <c r="I181" s="2" t="str">
         <f t="shared" ref="I181:I182" si="18">D181</f>
-        <v>15</v>
+        <v>EC</v>
       </c>
       <c r="J181" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26038,7 +26080,7 @@
         <v>330</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>160</v>
+        <v>346</v>
       </c>
       <c r="F182" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26054,7 +26096,7 @@
       </c>
       <c r="I182" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>01</v>
+        <v>B8</v>
       </c>
       <c r="J182" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26066,7 +26108,7 @@
         <v>334</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F183" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26082,7 +26124,7 @@
       </c>
       <c r="I183" s="2" t="str">
         <f t="shared" ref="I183:I184" si="20">D183</f>
-        <v>E3</v>
+        <v>00</v>
       </c>
       <c r="J183" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26094,7 +26136,7 @@
         <v>335</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="F184" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26110,7 +26152,7 @@
       </c>
       <c r="I184" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>00</v>
+        <v>81</v>
       </c>
       <c r="J184" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26122,7 +26164,7 @@
         <v>337</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F185" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26138,7 +26180,7 @@
       </c>
       <c r="I185" s="2" t="str">
         <f t="shared" ref="I185:I188" si="22">D185</f>
-        <v>00</v>
+        <v>C2</v>
       </c>
       <c r="J185" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26150,7 +26192,7 @@
         <v>338</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F186" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26166,7 +26208,7 @@
       </c>
       <c r="I186" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>37</v>
+        <v>05</v>
       </c>
       <c r="J186" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26178,7 +26220,7 @@
         <v>339</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F187" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26194,7 +26236,7 @@
       </c>
       <c r="I187" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>C2</v>
+        <v>00</v>
       </c>
       <c r="J187" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26206,7 +26248,7 @@
         <v>340</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>166</v>
+        <v>384</v>
       </c>
       <c r="F188" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26222,7 +26264,7 @@
       </c>
       <c r="I188" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>03</v>
+        <v>E2</v>
       </c>
       <c r="J188" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26234,7 +26276,7 @@
         <v>342</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F189" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26250,7 +26292,7 @@
       </c>
       <c r="I189" s="2" t="str">
         <f t="shared" ref="I189:I252" si="24">D189</f>
-        <v>00</v>
+        <v>C2</v>
       </c>
       <c r="J189" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26262,7 +26304,7 @@
         <v>343</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="F190" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26278,7 +26320,7 @@
       </c>
       <c r="I190" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>D4</v>
+        <v>06</v>
       </c>
       <c r="J190" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26290,7 +26332,7 @@
         <v>344</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F191" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26306,7 +26348,7 @@
       </c>
       <c r="I191" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>C2</v>
+        <v>10</v>
       </c>
       <c r="J191" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26318,7 +26360,7 @@
         <v>345</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>190</v>
+        <v>396</v>
       </c>
       <c r="F192" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26334,7 +26376,7 @@
       </c>
       <c r="I192" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>06</v>
+        <v>F1</v>
       </c>
       <c r="J192" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26346,7 +26388,7 @@
         <v>346</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F193" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26362,7 +26404,7 @@
       </c>
       <c r="I193" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="J193" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26374,7 +26416,7 @@
         <v>347</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="F194" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26390,7 +26432,7 @@
       </c>
       <c r="I194" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>00</v>
       </c>
       <c r="J194" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26402,7 +26444,7 @@
         <v>348</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="F195" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26418,7 +26460,7 @@
       </c>
       <c r="I195" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>C2</v>
+        <v>15</v>
       </c>
       <c r="J195" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26430,7 +26472,7 @@
         <v>349</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F196" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26446,7 +26488,7 @@
       </c>
       <c r="I196" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>07</v>
+        <v>01</v>
       </c>
       <c r="J196" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26458,7 +26500,7 @@
         <v>350</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F197" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26474,7 +26516,7 @@
       </c>
       <c r="I197" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>E3</v>
       </c>
       <c r="J197" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26486,7 +26528,7 @@
         <v>351</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="F198" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26502,7 +26544,7 @@
       </c>
       <c r="I198" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>81</v>
+        <v>00</v>
       </c>
       <c r="J198" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26514,7 +26556,7 @@
         <v>352</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F199" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26530,7 +26572,7 @@
       </c>
       <c r="I199" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>C2</v>
+        <v>00</v>
       </c>
       <c r="J199" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26542,7 +26584,7 @@
         <v>353</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F200" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26558,7 +26600,7 @@
       </c>
       <c r="I200" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>37</v>
       </c>
       <c r="J200" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26570,7 +26612,7 @@
         <v>354</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="F201" s="1" t="str">
         <f t="shared" si="14"/>
@@ -26586,7 +26628,7 @@
       </c>
       <c r="I201" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>62</v>
+        <v>C2</v>
       </c>
       <c r="J201" s="1" t="str">
         <f t="shared" si="16"/>
@@ -26598,7 +26640,7 @@
         <v>355</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F202" s="1" t="str">
         <f t="shared" ref="F202:F265" si="25">F201</f>
@@ -26614,7 +26656,7 @@
       </c>
       <c r="I202" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>03</v>
       </c>
       <c r="J202" s="1" t="str">
         <f t="shared" ref="J202:J265" si="27">J201</f>
@@ -26626,7 +26668,7 @@
         <v>136</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F203" s="1" t="str">
         <f t="shared" si="25"/>
@@ -26642,7 +26684,7 @@
       </c>
       <c r="I203" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>C2</v>
+        <v>00</v>
       </c>
       <c r="J203" s="1" t="str">
         <f t="shared" si="27"/>
@@ -26654,7 +26696,7 @@
         <v>137</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>216</v>
+        <v>384</v>
       </c>
       <c r="F204" s="1" t="str">
         <f t="shared" si="25"/>
@@ -26670,7 +26712,7 @@
       </c>
       <c r="I204" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>08</v>
+        <v>E2</v>
       </c>
       <c r="J204" s="1" t="str">
         <f t="shared" si="27"/>
@@ -26710,7 +26752,7 @@
         <v>356</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>327</v>
+        <v>190</v>
       </c>
       <c r="F206" s="1" t="str">
         <f t="shared" si="25"/>
@@ -26726,7 +26768,7 @@
       </c>
       <c r="I206" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>09</v>
+        <v>06</v>
       </c>
       <c r="J206" s="1" t="str">
         <f t="shared" si="27"/>
@@ -26766,7 +26808,7 @@
         <v>358</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="F208" s="1" t="str">
         <f t="shared" si="25"/>
@@ -26782,7 +26824,7 @@
       </c>
       <c r="I208" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>52</v>
       </c>
       <c r="J208" s="1" t="str">
         <f t="shared" si="27"/>
@@ -26794,7 +26836,7 @@
         <v>359</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="F209" s="1" t="str">
         <f t="shared" si="25"/>
@@ -26810,7 +26852,7 @@
       </c>
       <c r="I209" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>C2</v>
       </c>
       <c r="J209" s="1" t="str">
         <f t="shared" si="27"/>
@@ -26822,7 +26864,7 @@
         <v>360</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F210" s="1" t="str">
         <f t="shared" si="25"/>
@@ -26838,7 +26880,7 @@
       </c>
       <c r="I210" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>07</v>
       </c>
       <c r="J210" s="1" t="str">
         <f t="shared" si="27"/>
@@ -26850,7 +26892,7 @@
         <v>329</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F211" s="1" t="str">
         <f t="shared" si="25"/>
@@ -26866,7 +26908,7 @@
       </c>
       <c r="I211" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>C2</v>
+        <v>00</v>
       </c>
       <c r="J211" s="1" t="str">
         <f t="shared" si="27"/>
@@ -26878,7 +26920,7 @@
         <v>361</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="F212" s="1" t="str">
         <f t="shared" si="25"/>
@@ -26894,7 +26936,7 @@
       </c>
       <c r="I212" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>04</v>
+        <v>81</v>
       </c>
       <c r="J212" s="1" t="str">
         <f t="shared" si="27"/>
@@ -26906,7 +26948,7 @@
         <v>362</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F213" s="1" t="str">
         <f t="shared" si="25"/>
@@ -26922,7 +26964,7 @@
       </c>
       <c r="I213" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>01</v>
+        <v>C2</v>
       </c>
       <c r="J213" s="1" t="str">
         <f t="shared" si="27"/>
@@ -26934,7 +26976,7 @@
         <v>363</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F214" s="1" t="str">
         <f t="shared" si="25"/>
@@ -26950,7 +26992,7 @@
       </c>
       <c r="I214" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="J214" s="1" t="str">
         <f t="shared" si="27"/>
@@ -26962,7 +27004,7 @@
         <v>364</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="F215" s="1" t="str">
         <f t="shared" si="25"/>
@@ -26978,7 +27020,7 @@
       </c>
       <c r="I215" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J215" s="1" t="str">
         <f t="shared" si="27"/>
@@ -26990,7 +27032,7 @@
         <v>365</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F216" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27006,7 +27048,7 @@
       </c>
       <c r="I216" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="J216" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27018,7 +27060,7 @@
         <v>366</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>329</v>
+        <v>136</v>
       </c>
       <c r="F217" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27034,7 +27076,7 @@
       </c>
       <c r="I217" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>CA</v>
+        <v>C2</v>
       </c>
       <c r="J217" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27046,7 +27088,7 @@
         <v>367</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="F218" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27062,7 +27104,7 @@
       </c>
       <c r="I218" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>08</v>
       </c>
       <c r="J218" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27074,7 +27116,7 @@
         <v>368</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F219" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27090,7 +27132,7 @@
       </c>
       <c r="I219" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>FC</v>
+        <v>C2</v>
       </c>
       <c r="J219" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27102,7 +27144,7 @@
         <v>369</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F220" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27118,7 +27160,7 @@
       </c>
       <c r="I220" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>CA</v>
+        <v>09</v>
       </c>
       <c r="J220" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27130,7 +27172,7 @@
         <v>370</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F221" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27146,7 +27188,7 @@
       </c>
       <c r="I221" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>00</v>
       </c>
       <c r="J221" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27158,7 +27200,7 @@
         <v>371</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F222" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27174,7 +27216,7 @@
       </c>
       <c r="I222" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>00</v>
       </c>
       <c r="J222" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27186,7 +27228,7 @@
         <v>372</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F223" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27202,7 +27244,7 @@
       </c>
       <c r="I223" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>14</v>
       </c>
       <c r="J223" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27214,7 +27256,7 @@
         <v>373</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>354</v>
+        <v>192</v>
       </c>
       <c r="F224" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27230,7 +27272,7 @@
       </c>
       <c r="I224" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>C0</v>
+        <v>40</v>
       </c>
       <c r="J224" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27242,7 +27284,7 @@
         <v>374</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="F225" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27258,7 +27300,7 @@
       </c>
       <c r="I225" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>5D</v>
+        <v>C2</v>
       </c>
       <c r="J225" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27270,7 +27312,7 @@
         <v>375</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="F226" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27286,7 +27328,7 @@
       </c>
       <c r="I226" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>04</v>
       </c>
       <c r="J226" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27298,7 +27340,7 @@
         <v>376</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="F227" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27314,7 +27356,7 @@
       </c>
       <c r="I227" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>5D</v>
+        <v>01</v>
       </c>
       <c r="J227" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27326,7 +27368,7 @@
         <v>377</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="F228" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27342,7 +27384,7 @@
       </c>
       <c r="I228" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>04</v>
       </c>
       <c r="J228" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27354,7 +27396,7 @@
         <v>378</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="F229" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27370,7 +27412,7 @@
       </c>
       <c r="I229" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>5D</v>
+        <v>80</v>
       </c>
       <c r="J229" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27382,7 +27424,7 @@
         <v>379</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F230" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27398,7 +27440,7 @@
       </c>
       <c r="I230" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="J230" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27410,7 +27452,7 @@
         <v>380</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="F231" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27426,7 +27468,7 @@
       </c>
       <c r="I231" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>5D</v>
+        <v>CA</v>
       </c>
       <c r="J231" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27466,7 +27508,7 @@
         <v>382</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="F233" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27482,7 +27524,7 @@
       </c>
       <c r="I233" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>5D</v>
+        <v>FC</v>
       </c>
       <c r="J233" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27494,7 +27536,7 @@
         <v>383</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>157</v>
+        <v>374</v>
       </c>
       <c r="F234" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27510,7 +27552,7 @@
       </c>
       <c r="I234" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>D8</v>
       </c>
       <c r="J234" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27522,7 +27564,7 @@
         <v>384</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="F235" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27538,7 +27580,7 @@
       </c>
       <c r="I235" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>5D</v>
+        <v>15</v>
       </c>
       <c r="J235" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27550,7 +27592,7 @@
         <v>144</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="F236" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27566,7 +27608,7 @@
       </c>
       <c r="I236" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>05</v>
       </c>
       <c r="J236" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27578,7 +27620,7 @@
         <v>385</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="F237" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27594,7 +27636,7 @@
       </c>
       <c r="I237" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>5D</v>
+        <v>00</v>
       </c>
       <c r="J237" s="1" t="str">
         <f t="shared" si="27"/>
@@ -27606,7 +27648,7 @@
         <v>386</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>157</v>
+        <v>354</v>
       </c>
       <c r="F238" s="1" t="str">
         <f t="shared" si="25"/>
@@ -27622,7 +27664,7 @@
       </c>
       <c r="I238" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>C0</v>
       </c>
       <c r="J238" s="1" t="str">
         <f t="shared" si="27"/>
@@ -36203,7 +36245,7 @@
         <v>685</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="F545" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36219,7 +36261,7 @@
       </c>
       <c r="I545" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>18</v>
+        <v>5D</v>
       </c>
       <c r="J545" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36231,7 +36273,7 @@
         <v>686</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="F546" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36247,7 +36289,7 @@
       </c>
       <c r="I546" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>40</v>
+        <v>00</v>
       </c>
       <c r="J546" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36259,7 +36301,7 @@
         <v>687</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="F547" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36275,7 +36317,7 @@
       </c>
       <c r="I547" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>00</v>
+        <v>5D</v>
       </c>
       <c r="J547" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36287,7 +36329,7 @@
         <v>688</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>403</v>
+        <v>157</v>
       </c>
       <c r="F548" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36303,7 +36345,7 @@
       </c>
       <c r="I548" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>F9</v>
+        <v>00</v>
       </c>
       <c r="J548" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36315,7 +36357,7 @@
         <v>689</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F549" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36331,7 +36373,7 @@
       </c>
       <c r="I549" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>6B</v>
+        <v>5D</v>
       </c>
       <c r="J549" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36371,7 +36413,7 @@
         <v>691</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="F551" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36387,7 +36429,7 @@
       </c>
       <c r="I551" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>EC</v>
+        <v>5D</v>
       </c>
       <c r="J551" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36399,7 +36441,7 @@
         <v>692</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="F552" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36415,7 +36457,7 @@
       </c>
       <c r="I552" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>24</v>
+        <v>00</v>
       </c>
       <c r="J552" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36427,7 +36469,7 @@
         <v>693</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="F553" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36443,7 +36485,7 @@
       </c>
       <c r="I553" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>14</v>
+        <v>5D</v>
       </c>
       <c r="J553" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36483,7 +36525,7 @@
         <v>695</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>382</v>
+        <v>252</v>
       </c>
       <c r="F555" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36499,7 +36541,7 @@
       </c>
       <c r="I555" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>E0</v>
+        <v>5D</v>
       </c>
       <c r="J555" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36511,7 +36553,7 @@
         <v>696</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="F556" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36527,7 +36569,7 @@
       </c>
       <c r="I556" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>0E</v>
+        <v>00</v>
       </c>
       <c r="J556" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36539,7 +36581,7 @@
         <v>697</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="F557" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36555,7 +36597,7 @@
       </c>
       <c r="I557" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>02</v>
+        <v>5D</v>
       </c>
       <c r="J557" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36595,7 +36637,7 @@
         <v>699</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="F559" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36611,7 +36653,7 @@
       </c>
       <c r="I559" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>02</v>
+        <v>18</v>
       </c>
       <c r="J559" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36623,7 +36665,7 @@
         <v>700</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="F560" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36639,7 +36681,7 @@
       </c>
       <c r="I560" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>00</v>
+        <v>40</v>
       </c>
       <c r="J560" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36651,7 +36693,7 @@
         <v>701</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="F561" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36667,7 +36709,7 @@
       </c>
       <c r="I561" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>02</v>
+        <v>00</v>
       </c>
       <c r="J561" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36679,7 +36721,7 @@
         <v>702</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>157</v>
+        <v>403</v>
       </c>
       <c r="F562" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36695,7 +36737,7 @@
       </c>
       <c r="I562" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>00</v>
+        <v>F9</v>
       </c>
       <c r="J562" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36707,7 +36749,7 @@
         <v>703</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="F563" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36723,7 +36765,7 @@
       </c>
       <c r="I563" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>02</v>
+        <v>6B</v>
       </c>
       <c r="J563" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36763,7 +36805,7 @@
         <v>705</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="F565" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36779,7 +36821,7 @@
       </c>
       <c r="I565" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>02</v>
+        <v>EC</v>
       </c>
       <c r="J565" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36791,7 +36833,7 @@
         <v>706</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="F566" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36807,7 +36849,7 @@
       </c>
       <c r="I566" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>00</v>
+        <v>32</v>
       </c>
       <c r="J566" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36819,7 +36861,7 @@
         <v>707</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F567" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36835,7 +36877,7 @@
       </c>
       <c r="I567" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J567" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36875,7 +36917,7 @@
         <v>709</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>221</v>
+        <v>382</v>
       </c>
       <c r="F569" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36891,7 +36933,7 @@
       </c>
       <c r="I569" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>02</v>
+        <v>E0</v>
       </c>
       <c r="J569" s="1" t="str">
         <f t="shared" si="56"/>
@@ -36903,7 +36945,7 @@
         <v>710</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>157</v>
+        <v>333</v>
       </c>
       <c r="F570" s="1" t="str">
         <f t="shared" si="54"/>
@@ -36919,7 +36961,7 @@
       </c>
       <c r="I570" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>00</v>
+        <v>0E</v>
       </c>
       <c r="J570" s="1" t="str">
         <f t="shared" si="56"/>
@@ -37211,7 +37253,7 @@
         <v>721</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="F581" s="1" t="str">
         <f t="shared" si="54"/>
@@ -37227,7 +37269,7 @@
       </c>
       <c r="I581" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>02</v>
+        <v>18</v>
       </c>
       <c r="J581" s="1" t="str">
         <f t="shared" si="56"/>
@@ -37323,7 +37365,7 @@
         <v>725</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="F585" s="1" t="str">
         <f t="shared" si="54"/>
@@ -37339,7 +37381,7 @@
       </c>
       <c r="I585" s="2" t="str">
         <f t="shared" ref="I585:I614" si="58">D585</f>
-        <v>10</v>
+        <v>02</v>
       </c>
       <c r="J585" s="1" t="str">
         <f t="shared" si="56"/>
@@ -37351,10 +37393,10 @@
         <v>726</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>399</v>
+        <v>157</v>
       </c>
       <c r="F586" s="1" t="str">
-        <f t="shared" ref="F586:F618" si="59">F585</f>
+        <f t="shared" ref="F586:F622" si="59">F585</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G586">
@@ -37362,15 +37404,15 @@
         <v>577</v>
       </c>
       <c r="H586" s="1" t="str">
-        <f t="shared" ref="H586:H618" si="60">H585</f>
+        <f t="shared" ref="H586:H622" si="60">H585</f>
         <v xml:space="preserve"> =&gt;x"</v>
       </c>
       <c r="I586" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>F4</v>
+        <v>00</v>
       </c>
       <c r="J586" s="1" t="str">
-        <f t="shared" ref="J586:J618" si="61">J585</f>
+        <f t="shared" ref="J586:J622" si="61">J585</f>
         <v>",</v>
       </c>
     </row>
@@ -37379,7 +37421,7 @@
         <v>727</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="F587" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37395,7 +37437,7 @@
       </c>
       <c r="I587" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>FD</v>
+        <v>02</v>
       </c>
       <c r="J587" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37407,7 +37449,7 @@
         <v>728</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="F588" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37423,7 +37465,7 @@
       </c>
       <c r="I588" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>07</v>
+        <v>00</v>
       </c>
       <c r="J588" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37435,7 +37477,7 @@
         <v>729</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="F589" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37451,7 +37493,7 @@
       </c>
       <c r="I589" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>00</v>
+        <v>02</v>
       </c>
       <c r="J589" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37463,7 +37505,7 @@
         <v>730</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="F590" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37479,7 +37521,7 @@
       </c>
       <c r="I590" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>50</v>
+        <v>00</v>
       </c>
       <c r="J590" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37491,7 +37533,7 @@
         <v>731</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="F591" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37507,7 +37549,7 @@
       </c>
       <c r="I591" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>C2</v>
+        <v>02</v>
       </c>
       <c r="J591" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37519,7 +37561,7 @@
         <v>732</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="F592" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37535,7 +37577,7 @@
       </c>
       <c r="I592" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>07</v>
+        <v>00</v>
       </c>
       <c r="J592" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37547,7 +37589,7 @@
         <v>733</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="F593" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37563,7 +37605,7 @@
       </c>
       <c r="I593" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="J593" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37603,7 +37645,7 @@
         <v>735</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="F595" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37619,7 +37661,7 @@
       </c>
       <c r="I595" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>15</v>
+        <v>02</v>
       </c>
       <c r="J595" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37631,7 +37673,7 @@
         <v>736</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F596" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37647,7 +37689,7 @@
       </c>
       <c r="I596" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="J596" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37659,7 +37701,7 @@
         <v>737</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="F597" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37675,7 +37717,7 @@
       </c>
       <c r="I597" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>18</v>
+        <v>02</v>
       </c>
       <c r="J597" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37687,7 +37729,7 @@
         <v>738</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="F598" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37703,7 +37745,7 @@
       </c>
       <c r="I598" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>00</v>
       </c>
       <c r="J598" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37715,7 +37757,7 @@
         <v>739</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F599" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37731,7 +37773,7 @@
       </c>
       <c r="I599" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>E3</v>
+        <v>10</v>
       </c>
       <c r="J599" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37743,7 +37785,7 @@
         <v>740</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="F600" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37759,7 +37801,7 @@
       </c>
       <c r="I600" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>00</v>
+        <v>F0</v>
       </c>
       <c r="J600" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37771,7 +37813,7 @@
         <v>741</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="F601" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37787,7 +37829,7 @@
       </c>
       <c r="I601" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>01</v>
+        <v>FD</v>
       </c>
       <c r="J601" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37799,7 +37841,7 @@
         <v>742</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F602" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37815,7 +37857,7 @@
       </c>
       <c r="I602" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="J602" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37827,7 +37869,7 @@
         <v>743</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F603" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37843,7 +37885,7 @@
       </c>
       <c r="I603" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>80</v>
+        <v>00</v>
       </c>
       <c r="J603" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37855,7 +37897,7 @@
         <v>744</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="F604" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37871,7 +37913,7 @@
       </c>
       <c r="I604" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>01</v>
+        <v>5E</v>
       </c>
       <c r="J604" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37911,7 +37953,7 @@
         <v>746</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F606" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37927,7 +37969,7 @@
       </c>
       <c r="I606" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="J606" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37939,7 +37981,7 @@
         <v>747</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F607" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37955,7 +37997,7 @@
       </c>
       <c r="I607" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="J607" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37967,7 +38009,7 @@
         <v>748</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="F608" s="1" t="str">
         <f t="shared" si="59"/>
@@ -37983,7 +38025,7 @@
       </c>
       <c r="I608" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>44</v>
+        <v>00</v>
       </c>
       <c r="J608" s="1" t="str">
         <f t="shared" si="61"/>
@@ -37991,11 +38033,12 @@
       </c>
     </row>
     <row r="609" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B609" s="2"/>
       <c r="C609" s="2" t="s">
         <v>749</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F609" s="1" t="str">
         <f t="shared" si="59"/>
@@ -38011,7 +38054,7 @@
       </c>
       <c r="I609" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J609" s="1" t="str">
         <f t="shared" si="61"/>
@@ -38023,7 +38066,7 @@
         <v>750</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="F610" s="1" t="str">
         <f t="shared" si="59"/>
@@ -38039,7 +38082,7 @@
       </c>
       <c r="I610" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>01</v>
       </c>
       <c r="J610" s="1" t="str">
         <f t="shared" si="61"/>
@@ -38051,7 +38094,7 @@
         <v>751</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="F611" s="1" t="str">
         <f t="shared" si="59"/>
@@ -38067,7 +38110,7 @@
       </c>
       <c r="I611" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>C2</v>
+        <v>18</v>
       </c>
       <c r="J611" s="1" t="str">
         <f t="shared" si="61"/>
@@ -38079,7 +38122,7 @@
         <v>752</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F612" s="1" t="str">
         <f t="shared" si="59"/>
@@ -38095,7 +38138,7 @@
       </c>
       <c r="I612" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>07</v>
+        <v>40</v>
       </c>
       <c r="J612" s="1" t="str">
         <f t="shared" si="61"/>
@@ -38107,7 +38150,7 @@
         <v>753</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F613" s="1" t="str">
         <f t="shared" si="59"/>
@@ -38123,7 +38166,7 @@
       </c>
       <c r="I613" s="2" t="str">
         <f t="shared" si="58"/>
-        <v>01</v>
+        <v>E3</v>
       </c>
       <c r="J613" s="1" t="str">
         <f t="shared" si="61"/>
@@ -38161,10 +38204,10 @@
     <row r="615" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B615" s="2"/>
       <c r="C615" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F615" s="1" t="str">
         <f t="shared" si="59"/>
@@ -38180,7 +38223,7 @@
       </c>
       <c r="I615" s="2" t="str">
         <f t="shared" ref="I615:I618" si="63">D615</f>
-        <v>15</v>
+        <v>01</v>
       </c>
       <c r="J615" s="1" t="str">
         <f t="shared" si="61"/>
@@ -38189,10 +38232,10 @@
     </row>
     <row r="616" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C616" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="F616" s="1" t="str">
         <f t="shared" si="59"/>
@@ -38208,7 +38251,7 @@
       </c>
       <c r="I616" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>01</v>
+        <v>05</v>
       </c>
       <c r="J616" s="1" t="str">
         <f t="shared" si="61"/>
@@ -38217,10 +38260,10 @@
     </row>
     <row r="617" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C617" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="F617" s="1" t="str">
         <f t="shared" si="59"/>
@@ -38236,7 +38279,7 @@
       </c>
       <c r="I617" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>E3</v>
+        <v>80</v>
       </c>
       <c r="J617" s="1" t="str">
         <f t="shared" si="61"/>
@@ -38245,10 +38288,10 @@
     </row>
     <row r="618" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C618" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F618" s="1" t="str">
         <f t="shared" si="59"/>
@@ -38264,7 +38307,7 @@
       </c>
       <c r="I618" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="J618" s="1" t="str">
         <f t="shared" si="61"/>
@@ -38272,7 +38315,397 @@
       </c>
     </row>
     <row r="619" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B619" t="s">
+      <c r="C619" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F619" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G619">
+        <f t="shared" ref="G619:G622" si="64">HEX2DEC(C619)</f>
+        <v>610</v>
+      </c>
+      <c r="H619" s="1" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I619" s="2" t="str">
+        <f t="shared" ref="I619:I622" si="65">D619</f>
+        <v>C2</v>
+      </c>
+      <c r="J619" s="1" t="str">
+        <f t="shared" si="61"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="620" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C620" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F620" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G620">
+        <f t="shared" si="64"/>
+        <v>611</v>
+      </c>
+      <c r="H620" s="1" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I620" s="2" t="str">
+        <f t="shared" si="65"/>
+        <v>05</v>
+      </c>
+      <c r="J620" s="1" t="str">
+        <f t="shared" si="61"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="621" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C621" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F621" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G621">
+        <f t="shared" si="64"/>
+        <v>612</v>
+      </c>
+      <c r="H621" s="1" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I621" s="2" t="str">
+        <f t="shared" si="65"/>
+        <v>00</v>
+      </c>
+      <c r="J621" s="1" t="str">
+        <f t="shared" si="61"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="622" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C622" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F622" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G622">
+        <f t="shared" si="64"/>
+        <v>613</v>
+      </c>
+      <c r="H622" s="1" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I622" s="2" t="str">
+        <f t="shared" si="65"/>
+        <v>52</v>
+      </c>
+      <c r="J622" s="1" t="str">
+        <f t="shared" si="61"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="623" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B623" s="2"/>
+      <c r="C623" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G623">
+        <f>HEX2DEC(C623)</f>
+        <v>614</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I623" s="2" t="str">
+        <f>D623</f>
+        <v>18</v>
+      </c>
+      <c r="J623" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="624" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C624" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F624" s="1" t="str">
+        <f t="shared" ref="F624:F632" si="66">F623</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G624">
+        <f>HEX2DEC(C624)</f>
+        <v>615</v>
+      </c>
+      <c r="H624" s="1" t="str">
+        <f t="shared" ref="H624:H632" si="67">H623</f>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I624" s="2" t="str">
+        <f t="shared" ref="I624:I632" si="68">D624</f>
+        <v>40</v>
+      </c>
+      <c r="J624" s="1" t="str">
+        <f t="shared" ref="J624:J632" si="69">J623</f>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="625" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C625" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F625" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G625">
+        <f t="shared" ref="G625:G632" si="70">HEX2DEC(C625)</f>
+        <v>616</v>
+      </c>
+      <c r="H625" s="1" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I625" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>C2</v>
+      </c>
+      <c r="J625" s="1" t="str">
+        <f t="shared" si="69"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="626" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C626" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F626" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G626">
+        <f t="shared" si="70"/>
+        <v>617</v>
+      </c>
+      <c r="H626" s="1" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I626" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>07</v>
+      </c>
+      <c r="J626" s="1" t="str">
+        <f t="shared" si="69"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="627" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C627" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F627" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G627">
+        <f t="shared" si="70"/>
+        <v>618</v>
+      </c>
+      <c r="H627" s="1" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I627" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>01</v>
+      </c>
+      <c r="J627" s="1" t="str">
+        <f t="shared" si="69"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="628" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C628" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F628" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G628">
+        <f t="shared" si="70"/>
+        <v>619</v>
+      </c>
+      <c r="H628" s="1" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I628" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>00</v>
+      </c>
+      <c r="J628" s="1" t="str">
+        <f t="shared" si="69"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="629" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C629" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F629" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G629">
+        <f t="shared" si="70"/>
+        <v>620</v>
+      </c>
+      <c r="H629" s="1" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I629" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>15</v>
+      </c>
+      <c r="J629" s="1" t="str">
+        <f t="shared" si="69"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="630" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C630" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F630" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G630">
+        <f t="shared" si="70"/>
+        <v>621</v>
+      </c>
+      <c r="H630" s="1" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I630" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>01</v>
+      </c>
+      <c r="J630" s="1" t="str">
+        <f t="shared" si="69"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="631" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C631" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F631" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G631">
+        <f t="shared" si="70"/>
+        <v>622</v>
+      </c>
+      <c r="H631" s="1" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I631" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>E3</v>
+      </c>
+      <c r="J631" s="1" t="str">
+        <f t="shared" si="69"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="632" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C632" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F632" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G632">
+        <f t="shared" si="70"/>
+        <v>623</v>
+      </c>
+      <c r="H632" s="1" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> =&gt;x"</v>
+      </c>
+      <c r="I632" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>00</v>
+      </c>
+      <c r="J632" s="1" t="str">
+        <f t="shared" si="69"/>
+        <v>",</v>
+      </c>
+    </row>
+    <row r="633" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B633" t="s">
         <v>152</v>
       </c>
     </row>
